--- a/02_working/09_FE/FE_study.xlsx
+++ b/02_working/09_FE/FE_study.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\survey-2\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\survey-2\Documents\GitHub\citizen_task\02_working\09_FE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384B0AFB-3DA9-4A70-B2CB-437AA3DD1F28}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95419225-AB0B-4E74-98D0-D4B9EA7E347D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11295" xr2:uid="{F62E7494-60D8-4C1F-8FB8-918B8ADB4093}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="170">
   <si>
     <t>基本情報技術者教室「くれば」まとめ</t>
     <rPh sb="0" eb="2">
@@ -1019,34 +1019,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>赤：超重要、黄：必須、青：時々出</t>
-    <rPh sb="0" eb="1">
-      <t>アカ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>チョウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジュウヨウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒッス</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>アオ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>トキドキ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>デ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>配列</t>
     <rPh sb="0" eb="2">
       <t>ハイレツ</t>
@@ -1141,6 +1113,1048 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>コウゾウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2分探索木</t>
+    <rPh sb="1" eb="2">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タンサク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>左の子＜親＜右の子の関係にある</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オヤ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カンケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ヒープ木</t>
+    <rPh sb="3" eb="4">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>親＜子、または子＜親</t>
+    <rPh sb="0" eb="1">
+      <t>オヤ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オヤ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2ー06
+データの整列</t>
+    <rPh sb="9" eb="11">
+      <t>セイレツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>基本交換法</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウカン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>隣り合う要素を比較し交換する</t>
+    <rPh sb="0" eb="1">
+      <t>トナ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>基本選択法</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>センタクホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>最小値(または最大値)を選んで交換する</t>
+    <rPh sb="0" eb="3">
+      <t>サイショウチ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>サイダイチ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コウカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>基本挿入法</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソウニュウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>挿入しながら交換する</t>
+    <rPh sb="0" eb="2">
+      <t>ソウニュウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>基本交換法・基本選択法・基本挿入法の計算量</t>
+    <rPh sb="0" eb="2">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウカン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>センタクホウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ソウニュウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>リョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>O(n^2)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2ー07
+データの探索</t>
+    <rPh sb="9" eb="11">
+      <t>タンサク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>線形探索法</t>
+    <rPh sb="0" eb="2">
+      <t>センケイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タンサク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>先頭から順に探索する</t>
+    <rPh sb="0" eb="2">
+      <t>セントウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>タンサク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>線形探索法の探索回数</t>
+    <rPh sb="0" eb="2">
+      <t>センケイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タンサク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>タンサク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カイスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>最大探索回数N回
+平均探索回数(N+1)/2回</t>
+    <rPh sb="0" eb="2">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タンサク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヘイキン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>タンサク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>線形探索法の計算量</t>
+    <rPh sb="0" eb="2">
+      <t>センケイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タンサク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>リョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>O(N)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2分探索法</t>
+    <rPh sb="1" eb="2">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タンサク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1/2に狭めながら探索する</t>
+    <rPh sb="4" eb="5">
+      <t>セバ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>タンサク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2分探索法の探索回数</t>
+    <rPh sb="1" eb="2">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タンサク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>タンサク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カイスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>平均探索回数log(2)N回・最大探索回数log(2)N+1回</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイキン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タンサク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>タンサク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2分探索法の計算量</t>
+    <rPh sb="1" eb="2">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タンサク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>リョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>O(log(2)N)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ハッシュ探索法の探索回数</t>
+    <rPh sb="4" eb="6">
+      <t>タンサク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>タンサク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カイスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ハッシュ探索法の計算量</t>
+    <rPh sb="4" eb="6">
+      <t>タンサク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>リョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1回</t>
+    <rPh sb="1" eb="2">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>O(1)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>第3章
+ハードウェア</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3ー01
+コンピュータの五大装置</t>
+    <rPh sb="12" eb="14">
+      <t>ゴダイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ソウチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5大装置</t>
+    <rPh sb="1" eb="2">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソウチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>制御装置、演算装置、記憶装置、入力装置、出力装置</t>
+    <rPh sb="0" eb="2">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソウチ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>エンザン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ソウチ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キオク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ソウチ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ソウチ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ソウチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3ー02
+CPU</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3ー03
+アドレス指定</t>
+    <rPh sb="9" eb="11">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>命令実行サイクル</t>
+    <rPh sb="0" eb="2">
+      <t>メイレイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>命令フェッチ→命令の解読→実効アドレス計算
+→オペランド読出し→命令の実行→演算結果格納</t>
+    <rPh sb="0" eb="2">
+      <t>メイレイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>メイレイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カイドク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>メイレイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>エンザン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>即値アドレス指定</t>
+    <rPh sb="0" eb="1">
+      <t>ソク</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>命令のアドレス部→データ</t>
+    <rPh sb="0" eb="2">
+      <t>メイレイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ブ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>直接アドレス指定</t>
+    <rPh sb="0" eb="2">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アドレス部の値→実効アドレス</t>
+    <rPh sb="4" eb="5">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>間接アドレス指定</t>
+    <rPh sb="0" eb="2">
+      <t>カンセツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アドレス部の値→実効アドレスを格納しているアドレス…
+→実効アドレス</t>
+    <rPh sb="4" eb="5">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>相対アドレス指定</t>
+    <rPh sb="0" eb="2">
+      <t>ソウタイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アドレス部の値＋プログラムカウンタ→実効アドレス</t>
+    <rPh sb="4" eb="5">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>インデックスアドレス指定</t>
+    <rPh sb="10" eb="12">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アドレス部の値＋インデックスレジスタ→実効アドレス</t>
+    <rPh sb="4" eb="5">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ベースアドレス指定</t>
+    <rPh sb="7" eb="9">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アドレス部の値＋ベースレジスタ→実効アドレス</t>
+    <rPh sb="4" eb="5">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3ー04
+CPUの高速化</t>
+    <rPh sb="9" eb="12">
+      <t>コウソクカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パイプライン処理</t>
+    <rPh sb="6" eb="8">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>各ステージを並行して実行→高速化</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘイコウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>コウソクカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>赤：超重要、黄：必須、緑：時々出</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジュウヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ミドリ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>トキドキ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3ー05
+記憶素子</t>
+    <rPh sb="5" eb="7">
+      <t>キオク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ソシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>RAM</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>読み書き可能、揮発性</t>
+    <rPh sb="0" eb="1">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>キハツセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>読み出し専用、不揮発性</t>
+    <rPh sb="0" eb="1">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>センヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>フキハツセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ROM</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DRAM</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SRAM</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Dynamic(動的)→リフレッシュ必要、低速
+集積度高い→安価
+主記憶装置で用いられる</t>
+    <rPh sb="8" eb="10">
+      <t>ドウテキ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>テイソク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シュウセキ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>アンカ</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>シュキオク</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ソウチ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>モチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Static(静的)→リフレッシュ不必要、高速
+集積度低い→効果
+キャッシュメモリで用いられる</t>
+    <rPh sb="7" eb="9">
+      <t>セイテキ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>フヒツヨウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>コウソク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シュウセキ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ヒク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>モチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>過去問道場：https://www.fe-siken.com/</t>
+    <rPh sb="0" eb="3">
+      <t>カコモン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ドウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>キャッシュメモリ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CPUと主記憶装置の間に配置→高速化</t>
+    <rPh sb="4" eb="7">
+      <t>シュキオク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ソウチ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>コウソクカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>キャッシュメモリを使った実効アクセス時間</t>
+    <rPh sb="9" eb="10">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ヒット率×キャッシュメモリのアクセス時間
+＋(1ーヒット率)×主記憶装置のアクセス時間</t>
+    <rPh sb="3" eb="4">
+      <t>リツ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>リツ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>シュキオク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ソウチ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ディスクキャッシュ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>主記憶装置と磁気ディスクの間に配置→高速化</t>
+    <rPh sb="0" eb="3">
+      <t>シュキオク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ソウチ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジキ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>コウソクカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>記憶装置のアクセス速度(速い順)</t>
+    <rPh sb="0" eb="2">
+      <t>キオク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソウチ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ハヤ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ジュン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>歴史ではやい
+レ(レジスタ) → キ(キャッシュメモリ) → シ(主記憶)
+→デ(ディスクキャッシュ) → ハ(ハードディスク・磁気)</t>
+    <rPh sb="0" eb="2">
+      <t>レキシ</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>シュキオク</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ジキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メモリインタリーブ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>主記憶装置を幾つかの区画(バンク)に分割して同時アクセス
+→高速化</t>
+    <rPh sb="0" eb="3">
+      <t>シュキオク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ソウチ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>イク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>クカク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ブンカツ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>コウソクカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1183,7 +2197,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF0070C0"/>
+      <color rgb="FFC00000"/>
       <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1210,7 +2224,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1244,7 +2258,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1254,9 +2268,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1264,13 +2275,25 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="56" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1278,29 +2301,23 @@
     <xf numFmtId="56" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="56" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1616,471 +2633,808 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F78875D1-A6CB-4F62-916D-B7A21946074B}">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="15.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="44.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="6"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="8" t="s">
+      <c r="A4" s="9"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="6"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="8" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="6"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="8" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="6"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="8" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A8" s="6"/>
-      <c r="B8" s="10" t="s">
+      <c r="A8" s="9"/>
+      <c r="B8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="6"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="8" t="s">
+      <c r="A9" s="9"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A10" s="6"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="8" t="s">
+      <c r="A10" s="9"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="6"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="8" t="s">
+      <c r="A11" s="9"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" s="6"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="8" t="s">
+      <c r="A12" s="9"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7" t="s">
+      <c r="A13" s="9"/>
+      <c r="B13" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8" t="s">
+      <c r="A14" s="9"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A15" s="6"/>
-      <c r="B15" s="13" t="s">
+      <c r="A15" s="9"/>
+      <c r="B15" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16" s="6"/>
-      <c r="B16" s="14" t="s">
+      <c r="A16" s="9"/>
+      <c r="B16" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" s="6"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="8" t="s">
+      <c r="A17" s="9"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A18" s="6"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="8" t="s">
+      <c r="A18" s="9"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A19" s="6"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="8" t="s">
+      <c r="A19" s="9"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A20" s="6"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="8" t="s">
+      <c r="A20" s="9"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A21" s="6"/>
-      <c r="B21" s="14" t="s">
+      <c r="A21" s="9"/>
+      <c r="B21" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="6" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A22" s="6"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="8" t="s">
+      <c r="A22" s="9"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A23" s="6"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="8" t="s">
+      <c r="A23" s="9"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="6" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A24" s="6"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="8" t="s">
+      <c r="A24" s="9"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="6" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A25" s="6"/>
-      <c r="B25" s="15" t="s">
+      <c r="A25" s="9"/>
+      <c r="B25" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A26" s="6"/>
-      <c r="B26" s="16" t="s">
+      <c r="A26" s="9"/>
+      <c r="B26" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="6"/>
-      <c r="B27" s="17" t="s">
+      <c r="A27" s="9"/>
+      <c r="B27" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="5" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A28" s="6"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="8" t="s">
+      <c r="A28" s="9"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="5" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A29" s="6"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="8" t="s">
+      <c r="A29" s="9"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="5" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A30" s="6"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="8" t="s">
+      <c r="A30" s="9"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A31" s="6"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="8" t="s">
+      <c r="A31" s="9"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A32" s="6"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="8" t="s">
+      <c r="A32" s="9"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="5" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A33" s="6"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="8" t="s">
+      <c r="A33" s="9"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A34" s="6"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="8" t="s">
+      <c r="A34" s="9"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="5" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A35" s="6"/>
+      <c r="A35" s="9"/>
       <c r="B35" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="5" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A36" s="6"/>
+      <c r="A36" s="9"/>
       <c r="B36" s="18"/>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A37" s="4" t="s">
+    <row r="37" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B38" s="15" t="s">
+      <c r="A38" s="9"/>
+      <c r="B38" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D38" s="8" t="s">
+    </row>
+    <row r="39" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A39" s="9"/>
+      <c r="B39" s="7" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B39" s="15" t="s">
+      <c r="C39" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="D39" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D39" s="8" t="s">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A40" s="9"/>
+      <c r="B40" s="10" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B40" s="17" t="s">
+      <c r="C40" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="D40" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D40" s="8" t="s">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A41" s="9"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B41" s="17"/>
-      <c r="C41" s="8" t="s">
+      <c r="D41" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D41" s="8" t="s">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A42" s="9"/>
+      <c r="B42" s="10" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B42" s="4" t="s">
+      <c r="C42" s="5" t="s">
         <v>95</v>
       </c>
+      <c r="D42" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A43" s="9"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="9"/>
+      <c r="B44" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A45" s="9"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A46" s="9"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A47" s="9"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="9"/>
+      <c r="B48" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A49" s="9"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A50" s="9"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A51" s="9"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A52" s="9"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A53" s="9"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A54" s="9"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A55" s="9"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A56" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B57" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B58" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B59" s="18"/>
+      <c r="C59" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B60" s="18"/>
+      <c r="C60" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B61" s="18"/>
+      <c r="C61" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B62" s="18"/>
+      <c r="C62" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B63" s="18"/>
+      <c r="C63" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B64" s="18"/>
+      <c r="C64" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B65" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B66" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B67" s="15"/>
+      <c r="C67" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="B68" s="15"/>
+      <c r="C68" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="B69" s="15"/>
+      <c r="C69" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B70" s="15"/>
+      <c r="C70" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B71" s="15"/>
+      <c r="C71" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B72" s="15"/>
+      <c r="C72" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="B73" s="15"/>
+      <c r="C73" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B74" s="15"/>
+      <c r="C74" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>169</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="15">
+    <mergeCell ref="B66:B74"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="B48:B55"/>
+    <mergeCell ref="A37:A55"/>
+    <mergeCell ref="B58:B64"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="A3:A36"/>
     <mergeCell ref="B40:B41"/>
@@ -2093,6 +3447,6 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="65" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="55" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/02_working/09_FE/FE_study.xlsx
+++ b/02_working/09_FE/FE_study.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\survey-2\Documents\GitHub\citizen_task\02_working\09_FE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\梶原裕希\Documents\GitHub\citizen_task\02_working\09_FE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95419225-AB0B-4E74-98D0-D4B9EA7E347D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE4B4B1-DBC3-4659-9A41-01AB9F82402C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11295" xr2:uid="{F62E7494-60D8-4C1F-8FB8-918B8ADB4093}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="266">
   <si>
     <t>基本情報技術者教室「くれば」まとめ</t>
     <rPh sb="0" eb="2">
@@ -2155,6 +2155,1018 @@
     </rPh>
     <rPh sb="30" eb="33">
       <t>コウソクカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>磁気ディスク装置のアクセス時間</t>
+    <rPh sb="0" eb="2">
+      <t>ジキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ソウチ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>位置決め時間＋回転待ち時間＋データ転送時間</t>
+    <rPh sb="0" eb="2">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ギ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>テンソウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>フラグメンテーション</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ファイルの断片化→アクセス速度が遅くなる</t>
+    <rPh sb="5" eb="8">
+      <t>ダンペンカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オソ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3ー06
+磁気ディスク装置</t>
+    <rPh sb="5" eb="7">
+      <t>ジキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ソウチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3ー07
+補助記憶装置</t>
+    <rPh sb="5" eb="7">
+      <t>ホジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キオク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ソウチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>光ディスク</t>
+    <rPh sb="0" eb="1">
+      <t>ヒカリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レーザ光線で読出し／レーザ光線で書込み</t>
+    <rPh sb="3" eb="5">
+      <t>コウセン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヨミダ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウセン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カキコ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ーROM</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ーR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ーRW</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>再生専用型</t>
+    <rPh sb="0" eb="2">
+      <t>サイセイ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>センヨウガタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>追記型</t>
+    <rPh sb="0" eb="3">
+      <t>ツイキガタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>書換え型</t>
+    <rPh sb="0" eb="2">
+      <t>カキカ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ガタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DAT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>大容量・安価→バックアップ用媒体</t>
+    <rPh sb="0" eb="3">
+      <t>ダイヨウリョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>アンカ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バイタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>電気的に消去して書き直せる</t>
+    <rPh sb="0" eb="3">
+      <t>デンキテキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショウキョ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ナオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>フラッシュメモリ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3ー08
+入力装置</t>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ソウチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3ー09
+出力装置</t>
+    <rPh sb="5" eb="7">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ソウチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>有機ELディスプレイ</t>
+    <rPh sb="0" eb="2">
+      <t>ユウキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>自ら発光する→バックライト不要→薄型</t>
+    <rPh sb="0" eb="1">
+      <t>ミズカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハッコウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>フヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ウスガタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PDP</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ガス放電で発光する</t>
+    <rPh sb="2" eb="4">
+      <t>ホウデン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ハッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3ー10
+入出力インタフェース</t>
+    <rPh sb="5" eb="8">
+      <t>ニュウシュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>USB</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>周辺装置を接続するインタフェース
+ハブを使って最大127台</t>
+    <rPh sb="0" eb="2">
+      <t>シュウヘン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソウチ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>IrDA</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>赤外線通信</t>
+    <rPh sb="0" eb="3">
+      <t>セキガイセン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ツウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>第4章
+ソフトウェア</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4ー1
+ソフトウェアとOSS</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>RASIS</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>信頼性、可用性、保守性、保全性、安全性</t>
+    <rPh sb="0" eb="3">
+      <t>シンライセイ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>カヨウセイ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ホシュセイ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ホゼンセイ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>アンゼンセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4ー2
+ジョブ管理とタスク管理</t>
+    <rPh sb="7" eb="9">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ジョブ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>利用者から見た仕事の単位</t>
+    <rPh sb="0" eb="3">
+      <t>リヨウシャ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シゴト</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タンイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タスク</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コンピュータから見た仕事の単位</t>
+    <rPh sb="8" eb="9">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シゴト</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>タンイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スプーリング</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力データをいったん、磁気ディスク装置などに蓄える
+→CPUの有効活用</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジキ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ソウチ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>タクワ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タスクの状態遷移</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>実行可能状態、実行状態、待ち状態</t>
+    <rPh sb="0" eb="2">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マルチプログラミング</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>見かけ上、複数のタスクを並行に実行する
+→CPUの有効活用</t>
+    <rPh sb="0" eb="1">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヘイコウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4ー3
+記憶管理</t>
+    <rPh sb="4" eb="6">
+      <t>キオク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メモリのフラグメンテーション</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メモリの細切れ(分断化)
+→ガーベジコレクション・メモリコンパクション</t>
+    <rPh sb="4" eb="6">
+      <t>コマギ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ブンダンカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ページング方式</t>
+    <rPh sb="5" eb="7">
+      <t>ホウシキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ページ(固定長)単位で管理
+ページング多発→処理効率低下→スラッシング</t>
+    <rPh sb="4" eb="7">
+      <t>コテイチョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>タハツ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>コウリツ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>テイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4ー4
+ファイル管理</t>
+    <rPh sb="8" eb="10">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1階層上のディレクトリに移動する</t>
+    <rPh sb="1" eb="3">
+      <t>カイソウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>..</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4ー5
+プログラムの性質</t>
+    <rPh sb="10" eb="12">
+      <t>セイシツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>再配置可能(リロケータブル)</t>
+    <rPh sb="0" eb="3">
+      <t>サイハイチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>どこに配置しても実行可能</t>
+    <rPh sb="3" eb="5">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>再入可能(リエントラント)</t>
+    <rPh sb="0" eb="2">
+      <t>サイニュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>複数のタスクが同時に使用</t>
+    <rPh sb="0" eb="2">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>再使用可能(リユーザブル)</t>
+    <rPh sb="0" eb="3">
+      <t>サイシヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>再ロードしなくても使用可能</t>
+    <rPh sb="0" eb="1">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>再帰的(リカーシブ)</t>
+    <rPh sb="0" eb="3">
+      <t>サイキテキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>自分自身を呼び出す</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>再帰関数</t>
+    <rPh sb="0" eb="2">
+      <t>サイキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>終了条件まで処理を繰り返し、求めた値を代入</t>
+    <rPh sb="0" eb="2">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ダイニュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4ー6
+プログラム言語</t>
+    <rPh sb="9" eb="11">
+      <t>ゲンゴ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>インタプリタ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1命令ずつ解釈して実行する</t>
+    <rPh sb="1" eb="3">
+      <t>メイレイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カイシャク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コンパイラ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リンカ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>原始プログラム→目的プログラム</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンシ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>モクテキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>目的プログラム→ロードモジュール</t>
+    <rPh sb="0" eb="2">
+      <t>モクテキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>動的リンキング</t>
+    <rPh sb="0" eb="2">
+      <t>ドウテキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>実行時にリンクする</t>
+    <rPh sb="0" eb="2">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>静的リンキング</t>
+    <rPh sb="0" eb="2">
+      <t>セイテキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>連係編集時にあらかじめリンクしておく</t>
+    <rPh sb="0" eb="2">
+      <t>レンケイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ローダ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ロードモジュールを主記憶上にロードする</t>
+    <rPh sb="9" eb="12">
+      <t>シュキオク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ジョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4ー7
+マルチメディアと標準化</t>
+    <rPh sb="12" eb="15">
+      <t>ヒョウジュンカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>JPEG</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>静止画像の圧縮形式、フルカラー、非可逆圧縮</t>
+    <rPh sb="0" eb="2">
+      <t>セイシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>アッシュク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カギャク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>アッシュク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MPEG</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>動画像の圧縮形式</t>
+    <rPh sb="0" eb="3">
+      <t>ドウガゾウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>アッシュク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケイシキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ISO9000シリーズ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>品質マネジメントシステムの国際規格</t>
+    <rPh sb="0" eb="2">
+      <t>ヒンシツ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コクサイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ISO14000シリーズ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>環境マネジメントシステムの国際規格</t>
+    <rPh sb="0" eb="2">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コクサイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>第5章
+システムの構成
+と方式</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ホウシキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5ー01
+システムの処理形態</t>
+    <rPh sb="10" eb="12">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ケイタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バッチ処理</t>
+    <rPh sb="3" eb="5">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>まとめて処理→一括処理</t>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イッカツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オンライントランザクション処理</t>
+    <rPh sb="13" eb="15">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>データ発生すぐに処理→即時処理</t>
+    <rPh sb="3" eb="5">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ソクジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リアルタイム制御処理</t>
+    <rPh sb="6" eb="8">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>モニタやセンサで常に監視→極めて厳しい即時性</t>
+    <rPh sb="8" eb="9">
+      <t>ツネ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カンシ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>キワ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>キビ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>ソクジセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3層クライアントサーバシステム</t>
+    <rPh sb="1" eb="2">
+      <t>ソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>論理的に
+プレゼンテーション層、ファンクション層、データベース層</t>
+    <rPh sb="0" eb="3">
+      <t>ロンリテキ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ソウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2229,7 +3241,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2252,13 +3264,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2267,9 +3299,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2285,6 +3314,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2307,17 +3351,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2633,24 +3674,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F78875D1-A6CB-4F62-916D-B7A21946074B}">
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:D115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C80" sqref="C80"/>
+      <pane ySplit="2" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C135" sqref="C135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.75" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="56.875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
@@ -2662,779 +3703,1246 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="9"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="5" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="9"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="5" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="9"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="5" t="s">
+      <c r="A6" s="13"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="9"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="5" t="s">
+      <c r="A7" s="13"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A8" s="9"/>
-      <c r="B8" s="13" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="9"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="5" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A10" s="9"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="5" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="9"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="5" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" s="9"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="5" t="s">
+      <c r="A12" s="13"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="9"/>
-      <c r="B13" s="11" t="s">
+      <c r="A13" s="13"/>
+      <c r="B13" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="9"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="5" t="s">
+      <c r="A14" s="13"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A15" s="9"/>
-      <c r="B15" s="17" t="s">
+      <c r="A15" s="13"/>
+      <c r="B15" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16" s="9"/>
-      <c r="B16" s="15" t="s">
+      <c r="A16" s="13"/>
+      <c r="B16" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" s="9"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="5" t="s">
+      <c r="A17" s="13"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A18" s="9"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="5" t="s">
+      <c r="A18" s="13"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A19" s="9"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="5" t="s">
+      <c r="A19" s="13"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A20" s="9"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="5" t="s">
+      <c r="A20" s="13"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A21" s="9"/>
-      <c r="B21" s="15" t="s">
+      <c r="A21" s="13"/>
+      <c r="B21" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A22" s="9"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="5" t="s">
+      <c r="A22" s="13"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A23" s="9"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="5" t="s">
+      <c r="A23" s="13"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="5" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A24" s="9"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="5" t="s">
+      <c r="A24" s="13"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A25" s="9"/>
-      <c r="B25" s="7" t="s">
+      <c r="A25" s="13"/>
+      <c r="B25" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A26" s="9"/>
-      <c r="B26" s="8" t="s">
+      <c r="A26" s="13"/>
+      <c r="B26" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="9"/>
-      <c r="B27" s="10" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A27" s="13"/>
+      <c r="B27" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A28" s="9"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="5" t="s">
+      <c r="A28" s="13"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A29" s="9"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="5" t="s">
+      <c r="A29" s="13"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A30" s="9"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="5" t="s">
+      <c r="A30" s="13"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="4" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A31" s="9"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="5" t="s">
+      <c r="A31" s="13"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A32" s="9"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="5" t="s">
+      <c r="A32" s="13"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A33" s="9"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="5" t="s">
+      <c r="A33" s="13"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A34" s="9"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="5" t="s">
+      <c r="A34" s="13"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A35" s="9"/>
-      <c r="B35" s="18" t="s">
+      <c r="A35" s="13"/>
+      <c r="B35" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A36" s="9"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="5" t="s">
+      <c r="A36" s="13"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="9" t="s">
+    <row r="37" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A37" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A38" s="9"/>
-      <c r="B38" s="7" t="s">
+      <c r="A38" s="13"/>
+      <c r="B38" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A39" s="9"/>
-      <c r="B39" s="7" t="s">
+      <c r="A39" s="13"/>
+      <c r="B39" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A40" s="9"/>
-      <c r="B40" s="10" t="s">
+      <c r="A40" s="13"/>
+      <c r="B40" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="4" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A41" s="9"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="5" t="s">
+      <c r="A41" s="13"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A42" s="9"/>
-      <c r="B42" s="10" t="s">
+      <c r="A42" s="13"/>
+      <c r="B42" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="4" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A43" s="9"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="5" t="s">
+      <c r="A43" s="13"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="9"/>
-      <c r="B44" s="15" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A44" s="13"/>
+      <c r="B44" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="4" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A45" s="9"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="5" t="s">
+      <c r="A45" s="13"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="4" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A46" s="9"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="5" t="s">
+      <c r="A46" s="13"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="4" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A47" s="9"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="5" t="s">
+      <c r="A47" s="13"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="9"/>
-      <c r="B48" s="15" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A48" s="13"/>
+      <c r="B48" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D48" s="4" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A49" s="9"/>
-      <c r="B49" s="15"/>
-      <c r="C49" s="5" t="s">
+      <c r="A49" s="13"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="D49" s="5" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A50" s="9"/>
-      <c r="B50" s="15"/>
-      <c r="C50" s="5" t="s">
+      <c r="A50" s="13"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="4" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A51" s="9"/>
-      <c r="B51" s="15"/>
-      <c r="C51" s="5" t="s">
+      <c r="A51" s="13"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D51" s="4" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A52" s="9"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="5" t="s">
+      <c r="A52" s="13"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="D52" s="4" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A53" s="9"/>
-      <c r="B53" s="15"/>
-      <c r="C53" s="5" t="s">
+      <c r="A53" s="13"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D53" s="4" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A54" s="9"/>
-      <c r="B54" s="15"/>
-      <c r="C54" s="5" t="s">
+      <c r="A54" s="13"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D54" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A55" s="9"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="5" t="s">
+      <c r="A55" s="13"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D55" s="4" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="B56" s="19" t="s">
+      <c r="B56" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C56" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D56" s="4" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B57" s="19" t="s">
+      <c r="A57" s="13"/>
+      <c r="B57" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C57" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D57" s="4" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B58" s="18" t="s">
+      <c r="A58" s="13"/>
+      <c r="B58" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C58" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="D58" s="5" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B59" s="18"/>
-      <c r="C59" s="5" t="s">
+      <c r="A59" s="13"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="D59" s="4" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B60" s="18"/>
-      <c r="C60" s="5" t="s">
+      <c r="A60" s="13"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D60" s="4" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B61" s="18"/>
-      <c r="C61" s="5" t="s">
+      <c r="A61" s="13"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D61" s="6" t="s">
+      <c r="D61" s="5" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B62" s="18"/>
-      <c r="C62" s="5" t="s">
+      <c r="A62" s="13"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="D62" s="4" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B63" s="18"/>
-      <c r="C63" s="5" t="s">
+      <c r="A63" s="13"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="D63" s="4" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B64" s="18"/>
-      <c r="C64" s="5" t="s">
+      <c r="A64" s="13"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="D64" s="4" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="65" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B65" s="19" t="s">
+    <row r="65" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A65" s="13"/>
+      <c r="B65" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C65" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="D65" s="4" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="66" spans="2:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B66" s="15" t="s">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A66" s="13"/>
+      <c r="B66" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C66" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="D66" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B67" s="15"/>
-      <c r="C67" s="5" t="s">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A67" s="13"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="D67" s="4" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="68" spans="2:4" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="B68" s="15"/>
-      <c r="C68" s="5" t="s">
+    <row r="68" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A68" s="13"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="D68" s="6" t="s">
+      <c r="D68" s="5" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="69" spans="2:4" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="B69" s="15"/>
-      <c r="C69" s="5" t="s">
+    <row r="69" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A69" s="13"/>
+      <c r="B69" s="19"/>
+      <c r="C69" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="D69" s="6" t="s">
+      <c r="D69" s="5" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B70" s="15"/>
-      <c r="C70" s="5" t="s">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A70" s="13"/>
+      <c r="B70" s="19"/>
+      <c r="C70" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="D70" s="4" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="71" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B71" s="15"/>
-      <c r="C71" s="5" t="s">
+    <row r="71" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A71" s="13"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="D71" s="6" t="s">
+      <c r="D71" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B72" s="15"/>
-      <c r="C72" s="5" t="s">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A72" s="13"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="D72" s="4" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="73" spans="2:4" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="B73" s="15"/>
-      <c r="C73" s="5" t="s">
+    <row r="73" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A73" s="13"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="D73" s="6" t="s">
+      <c r="D73" s="5" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="74" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B74" s="15"/>
-      <c r="C74" s="5" t="s">
+    <row r="74" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A74" s="13"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="D74" s="6" t="s">
+      <c r="D74" s="5" t="s">
         <v>169</v>
       </c>
     </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A75" s="13"/>
+      <c r="B75" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A76" s="13"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A77" s="13"/>
+      <c r="B77" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A78" s="13"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A79" s="13"/>
+      <c r="B79" s="12"/>
+      <c r="C79" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A80" s="13"/>
+      <c r="B80" s="12"/>
+      <c r="C80" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A81" s="13"/>
+      <c r="B81" s="12"/>
+      <c r="C81" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A82" s="13"/>
+      <c r="B82" s="12"/>
+      <c r="C82" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A83" s="13"/>
+      <c r="B83" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A84" s="13"/>
+      <c r="B84" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A85" s="13"/>
+      <c r="B85" s="12"/>
+      <c r="C85" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A86" s="13"/>
+      <c r="B86" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A87" s="13"/>
+      <c r="B87" s="12"/>
+      <c r="C87" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A88" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A89" s="22"/>
+      <c r="B89" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A90" s="22"/>
+      <c r="B90" s="19"/>
+      <c r="C90" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A91" s="22"/>
+      <c r="B91" s="19"/>
+      <c r="C91" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A92" s="22"/>
+      <c r="B92" s="19"/>
+      <c r="C92" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A93" s="22"/>
+      <c r="B93" s="19"/>
+      <c r="C93" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A94" s="22"/>
+      <c r="B94" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A95" s="22"/>
+      <c r="B95" s="19"/>
+      <c r="C95" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A96" s="22"/>
+      <c r="B96" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A97" s="22"/>
+      <c r="B97" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A98" s="22"/>
+      <c r="B98" s="19"/>
+      <c r="C98" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A99" s="22"/>
+      <c r="B99" s="19"/>
+      <c r="C99" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A100" s="22"/>
+      <c r="B100" s="19"/>
+      <c r="C100" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A101" s="22"/>
+      <c r="B101" s="19"/>
+      <c r="C101" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A102" s="22"/>
+      <c r="B102" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A103" s="22"/>
+      <c r="B103" s="19"/>
+      <c r="C103" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A104" s="22"/>
+      <c r="B104" s="19"/>
+      <c r="C104" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A105" s="22"/>
+      <c r="B105" s="19"/>
+      <c r="C105" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A106" s="22"/>
+      <c r="B106" s="19"/>
+      <c r="C106" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A107" s="22"/>
+      <c r="B107" s="19"/>
+      <c r="C107" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A108" s="22"/>
+      <c r="B108" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A109" s="22"/>
+      <c r="B109" s="19"/>
+      <c r="C109" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A110" s="22"/>
+      <c r="B110" s="19"/>
+      <c r="C110" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A111" s="22"/>
+      <c r="B111" s="19"/>
+      <c r="C111" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A112" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="B112" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A113" s="20"/>
+      <c r="B113" s="12"/>
+      <c r="C113" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A114" s="20"/>
+      <c r="B114" s="12"/>
+      <c r="C114" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A115" s="20"/>
+      <c r="B115" s="12"/>
+      <c r="C115" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="28">
+    <mergeCell ref="A88:A111"/>
+    <mergeCell ref="B112:B115"/>
+    <mergeCell ref="A112:A115"/>
+    <mergeCell ref="B89:B93"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="B97:B101"/>
+    <mergeCell ref="B102:B107"/>
+    <mergeCell ref="B108:B111"/>
+    <mergeCell ref="B58:B64"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="A56:A87"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="B77:B82"/>
+    <mergeCell ref="B84:B85"/>
     <mergeCell ref="B66:B74"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="B48:B55"/>
-    <mergeCell ref="A37:A55"/>
-    <mergeCell ref="B58:B64"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="A3:A36"/>
     <mergeCell ref="B40:B41"/>
@@ -3444,6 +4952,10 @@
     <mergeCell ref="B16:B20"/>
     <mergeCell ref="B21:B24"/>
     <mergeCell ref="B27:B34"/>
+    <mergeCell ref="A37:A55"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="B48:B55"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/02_working/09_FE/FE_study.xlsx
+++ b/02_working/09_FE/FE_study.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\梶原裕希\Documents\GitHub\citizen_task\02_working\09_FE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE4B4B1-DBC3-4659-9A41-01AB9F82402C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3055EE7B-F2FA-47CE-9368-052723D3189F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11295" xr2:uid="{F62E7494-60D8-4C1F-8FB8-918B8ADB4093}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="447">
   <si>
     <t>基本情報技術者教室「くれば」まとめ</t>
     <rPh sb="0" eb="2">
@@ -3167,6 +3167,1964 @@
     </rPh>
     <rPh sb="31" eb="32">
       <t>ソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5ー02
+高信頼化システム</t>
+    <rPh sb="5" eb="9">
+      <t>コウシンライカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>デュプレックスシステム</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2系列→現用系と待機系
+現用系に障害が発生すれば切り替える</t>
+    <rPh sb="1" eb="3">
+      <t>ケイレツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ゲンヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>タイキ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ゲンヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ショウガイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コールドスタンバイ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>障害が発生してからオンライン処理プログラムを起動する</t>
+    <rPh sb="0" eb="2">
+      <t>ショウガイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ホットスタンバイ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>あらかじめオンライン処理プログラムを起動しておく</t>
+    <rPh sb="10" eb="12">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>デュアルシステム</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2系列→同じ処理をして結果を照合する
+  　　　障害が発生すれば切り離す
+  　　　信頼性高い</t>
+    <rPh sb="1" eb="3">
+      <t>ケイレツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ショウゴウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ショウガイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="42" eb="45">
+      <t>シンライセイ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5ー03
+RAIDと高信頼化技術</t>
+    <rPh sb="10" eb="14">
+      <t>コウシンライカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ギジュツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>RAID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>複数台の磁気ディスク→アクセスの高速化・高信頼性</t>
+    <rPh sb="0" eb="2">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>コウソク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>コウシンライ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>RAID0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>RAID1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>RAID3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>RAID5</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>データを分散して記録(ストライピング)→アクセスの高速化</t>
+    <rPh sb="4" eb="6">
+      <t>ブンサン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>コウソクカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>同じデータを別々の磁気ディスクに書き込む→高信頼性</t>
+    <rPh sb="0" eb="1">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ベツベツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジキ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="21" eb="25">
+      <t>コウシンライセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>データを分散・パリティ情報を固定して記録する
+→アクセスの高速化・高信頼性</t>
+    <rPh sb="4" eb="6">
+      <t>ブンサン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>コウソクカ</t>
+    </rPh>
+    <rPh sb="33" eb="37">
+      <t>コウシンライセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>データとパリティ情報を分散して記録する
+→アクセスの高速化・高信頼性</t>
+    <rPh sb="8" eb="10">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ブンサン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>コウソクカ</t>
+    </rPh>
+    <rPh sb="30" eb="34">
+      <t>コウシンライセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>フェールセーフ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>安全重視</t>
+    <rPh sb="0" eb="2">
+      <t>アンゼン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジュウシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>フェールソフト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>継続重視</t>
+    <rPh sb="0" eb="2">
+      <t>ケイゾク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジュウシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5ー04
+システムの性能評価</t>
+    <rPh sb="10" eb="12">
+      <t>セイノウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MIPS</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1秒間あたりの命令数を百万単位で表現する</t>
+    <rPh sb="1" eb="3">
+      <t>ビョウカン</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>メイレイスウ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>ヒャクマンタンイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5ー05
+稼働率</t>
+    <rPh sb="5" eb="7">
+      <t>カドウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>平均故障間隔</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイキン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コショウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>稼働している平均時間、MTBF</t>
+    <rPh sb="0" eb="2">
+      <t>カドウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘイキン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>平均修理時間</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイキン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュウリ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>修理している平均時間、MTTR</t>
+    <rPh sb="0" eb="2">
+      <t>シュウリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘイキン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>稼働率</t>
+    <rPh sb="0" eb="2">
+      <t>カドウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>稼働率＝MTBF/(MTBF＋MTTR)</t>
+    <rPh sb="0" eb="2">
+      <t>カドウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>直列システムの稼働率</t>
+    <rPh sb="0" eb="2">
+      <t>チョクレツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カドウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>並列システムの稼働率</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイレツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カドウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>a×b</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1ー(1ーa)(１ーb)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>第6章
+システム開発
+技術と監査</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ギジュツ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カンサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>6ー01
+システム企画</t>
+    <rPh sb="9" eb="11">
+      <t>キカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>情報システム戦略</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>センリャク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>経営戦略を実現</t>
+    <rPh sb="0" eb="2">
+      <t>ケイエイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センリャク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジツゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>全体最適化</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>サイテキカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>あるべき姿を明確に</t>
+    <rPh sb="4" eb="5">
+      <t>スガタ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>メイカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>6ー02
+業務プロセスとモデル化</t>
+    <rPh sb="5" eb="7">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DFD</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>データの流れを表した図</t>
+    <rPh sb="4" eb="5">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アラワ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>E-R図</t>
+    <rPh sb="3" eb="4">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エンティティ間の関連を表した図</t>
+    <rPh sb="6" eb="7">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アラワ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>UML</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オブジェクト指向で用いるモデリング言語</t>
+    <rPh sb="6" eb="8">
+      <t>シコウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ゲンゴ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>6ー03
+システム開発手法</t>
+    <rPh sb="9" eb="11">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ウォーターフォールモデル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>滝の水が落ちていく→各工程を順に進めていく</t>
+    <rPh sb="0" eb="1">
+      <t>タキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>カクコウテイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プロトタイプモデル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>開発初期段階で試しながら仕様確定する</t>
+    <rPh sb="0" eb="2">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ダンカイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カクテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スパイラルモデル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>渦巻
+→サブシステムごとに設計、プログラミング、テストを繰り返す</t>
+    <rPh sb="0" eb="2">
+      <t>ウズマキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リバースエンジニアリング</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プログラムから仕様書を作る</t>
+    <rPh sb="7" eb="10">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>6ー04
+画面設計と入力チェック</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>外部設計</t>
+    <rPh sb="0" eb="2">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>内部設計</t>
+    <rPh sb="0" eb="2">
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>利用者の立場から見たシステム設計、論理的な設計</t>
+    <rPh sb="0" eb="3">
+      <t>リヨウシャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タチバ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ロンリテキ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>開発者の立場から見たシステム設計、物理的な設計</t>
+    <rPh sb="0" eb="3">
+      <t>カイハツシャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タチバ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ブツリテキ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラジオボタン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>複数の項目の中から一つだけを選ぶ</t>
+    <rPh sb="0" eb="2">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>エラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チェックディジット</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力誤りを検出できる</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アヤマ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>6ー05
+モジュール分割</t>
+    <rPh sb="10" eb="12">
+      <t>ブンカツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>モジュール分割</t>
+    <rPh sb="5" eb="7">
+      <t>ブンカツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ソフトウェア詳細設計</t>
+    <rPh sb="6" eb="8">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>データ結合</t>
+    <rPh sb="3" eb="5">
+      <t>ケツゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>最も結合度が弱く、独立性が高い</t>
+    <rPh sb="0" eb="1">
+      <t>モット</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ケツゴウド</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヨワ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ドクリツセイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>6ー06
+プログラミング</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>構造化プログラミング</t>
+    <rPh sb="0" eb="3">
+      <t>コウゾウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>順次、選択、繰り返し</t>
+    <rPh sb="0" eb="2">
+      <t>ジュンジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>6ー07
+オブジェクト指向</t>
+    <rPh sb="11" eb="13">
+      <t>シコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オブジェクト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>データ(属性)＋メソッド(手続き)</t>
+    <rPh sb="4" eb="6">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>テツヅ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>インヘリタンス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>上位クラスのデータとメソッドを下位クラスに継承する</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>6ー08
+テスト手法</t>
+    <rPh sb="8" eb="10">
+      <t>シュホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ホワイトボックステスト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>内部構造に着目する</t>
+    <rPh sb="0" eb="2">
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウゾウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>チャクモク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ブラックボックステスト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>外部仕様に注目する</t>
+    <rPh sb="0" eb="2">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>チュウモク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>限界値分析</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンカイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ブンセキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>有効値クラスと無効値クラスの境界値</t>
+    <rPh sb="0" eb="2">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ムコウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キョウカイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>同値分割</t>
+    <rPh sb="0" eb="2">
+      <t>ドウチ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブンカツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>有効値クラスと無効値クラスの代表値</t>
+    <rPh sb="0" eb="2">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ムコウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ダイヒョウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ソフトウェア結合テスト</t>
+    <rPh sb="6" eb="8">
+      <t>ケツゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>モジュール間のインタフェースを検証する</t>
+    <rPh sb="5" eb="6">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ケンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>トップダウンテスト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ボトムアップテスト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>上位モジュールから下位モジュールへ
+ダミーモジュールはスタブ</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>下位モジュールから上位モジュールへ
+ダミーモジュールはドライバ</t>
+    <rPh sb="0" eb="2">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>6ー09
+レビュー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラウンドロビン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ウォークスルー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>インスペクション</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>持ち回りで責任者になり検証する</t>
+    <rPh sb="0" eb="1">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>セキニンシャ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レビュー対象物の作成者が責任者になり検証する</t>
+    <rPh sb="4" eb="6">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ブツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>セキニンシャ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ケンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>第三者が責任者となり検証する</t>
+    <rPh sb="0" eb="3">
+      <t>ダイサンシャ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>セキニンシャ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>6ー10
+ITサービスマネジメント</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ITIL</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ITサービスマネジメントに関するベストプラクティス</t>
+    <rPh sb="13" eb="14">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サービスデスク</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>インシデント管理</t>
+    <rPh sb="6" eb="8">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>問題管理</t>
+    <rPh sb="0" eb="2">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>利用者からの問合せに対する単一の窓口</t>
+    <rPh sb="0" eb="3">
+      <t>リヨウシャ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トイアワ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>タンイツ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>マドグチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サービスを迅速に復旧させる</t>
+    <rPh sb="5" eb="7">
+      <t>ジンソク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>フッキュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>問題を抜本的に解決する</t>
+    <rPh sb="0" eb="2">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>バッポンテキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイケツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>6ー11
+プロジェクト管理</t>
+    <rPh sb="11" eb="13">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プロジェクト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>決められた期間と予算内で、目標を決めて活動する</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヨサン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カツドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>WBS</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>階層的に分解</t>
+    <rPh sb="0" eb="3">
+      <t>カイソウテキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ブンカイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ガントチャート</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ガンと日程を守る</t>
+    <rPh sb="3" eb="5">
+      <t>ニッテイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>マモ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ファンクションポイント法</t>
+    <rPh sb="11" eb="12">
+      <t>ホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ファイル数や画面数などから定量的に算出</t>
+    <rPh sb="4" eb="5">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>テイリョウテキ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>6ー12
+工程管理</t>
+    <rPh sb="5" eb="7">
+      <t>コウテイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>最早開始日</t>
+    <rPh sb="0" eb="1">
+      <t>モット</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ハヤ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>カイシビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>最も遅い作業に合わす</t>
+    <rPh sb="0" eb="1">
+      <t>モット</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オソ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>最遅開始日</t>
+    <rPh sb="0" eb="2">
+      <t>サイチ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>カイシビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>最も早い作業に合わす</t>
+    <rPh sb="0" eb="1">
+      <t>モット</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ハヤ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>6ー13
+システム監査</t>
+    <rPh sb="9" eb="11">
+      <t>カンサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>システム監査</t>
+    <rPh sb="4" eb="6">
+      <t>カンサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>第三者の立場で調査・報告</t>
+    <rPh sb="0" eb="3">
+      <t>ダイサンシャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タチバ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ホウコク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>7ー01
+電気通信サービス</t>
+    <rPh sb="5" eb="7">
+      <t>デンキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ツウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>第7章
+ネットワーク
+技術</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ギジュツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ADSL</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>既存の電話回線を利用した高速データ通信
+上りよりも下りの方が速い</t>
+    <rPh sb="0" eb="2">
+      <t>キゾン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>デンワ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カイセン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウソク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ノボ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>クダ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ハヤ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>7ー02
+OSI基本参照モデルと
+TCP/IP</t>
+    <rPh sb="8" eb="10">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OSI基本参照モデル</t>
+    <rPh sb="3" eb="5">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ア・プ・セ・ト・ネ・デ・ブ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>7ー03
+IPアドレス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DNS</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ドメイン⇔IPアドレス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DHCP</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>動的にIPアドレスを割り当てる</t>
+    <rPh sb="0" eb="2">
+      <t>ドウテキ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NAT・NAPT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>グローバルアドレス⇔プライベートアドレス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>7ー04
+クラスとサブネット分割</t>
+    <rPh sb="14" eb="16">
+      <t>ブンカツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>IPアドレス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ネットワーク部＋ホスト部</t>
+    <rPh sb="6" eb="7">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ブ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サブネットマスク</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ネットワーク部(サブネット部を含む)に1、ホスト部に0</t>
+    <rPh sb="6" eb="7">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ブ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>7ー05
+LAN</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CSMA/CD方式</t>
+    <rPh sb="7" eb="9">
+      <t>ホウシキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>衝突すれば待って再送信</t>
+    <rPh sb="0" eb="2">
+      <t>ショウトツ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>サイソウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>7ー06
+LAN間接続装置</t>
+    <rPh sb="8" eb="9">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ソウチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リピータ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>物理層(第1層)で接続
+減衰した信号を増幅・再生→伝送路延長</t>
+    <rPh sb="0" eb="2">
+      <t>ブツリ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ゲンスイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シンゴウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ゾウフク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>サイセイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>デンソウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ロ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>エンチョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ブリッジ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>データリンク層(第2層)で接続
+宛先MACアドレスで中継</t>
+    <rPh sb="6" eb="7">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>アテサキ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>チュウケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ネットワーク層(第3層)で接続
+宛先IPアドレスで中継、経路選択(ルーティング)</t>
+    <rPh sb="6" eb="7">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>アテサキ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>チュウケイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ケイロ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>すべての層(第4層以上)で接続
+プロトコル変換</t>
+    <rPh sb="4" eb="5">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヘンカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ルータ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ゲートウェイ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>7ー07
+同期方式・誤り制御と
+伝送計算</t>
+    <rPh sb="5" eb="7">
+      <t>ドウキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ホウシキ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アヤマ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>デンソウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パリティチェック</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パリティビットを付加する
+1ビットの誤りを検出できる</t>
+    <rPh sb="8" eb="10">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>アヤマ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ケンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>水平垂直パリティチェック</t>
+    <rPh sb="0" eb="2">
+      <t>スイヘイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>スイチョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1ビットのビット誤りを訂正できる
+2ビット以上のビット誤りを検出できる</t>
+    <rPh sb="8" eb="9">
+      <t>アヤマ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>テイセイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>アヤマ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ケンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>第8章
+データベース
+技術</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ギジュツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8ー01
+データベース</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DBMS</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>データベースを管理するソフトウェア</t>
+    <rPh sb="7" eb="9">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8ー02
+関係データベース</t>
+    <rPh sb="5" eb="7">
+      <t>カンケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>主キー</t>
+    <rPh sb="0" eb="1">
+      <t>シュ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一意(ユニーク)、重複がない</t>
+    <rPh sb="0" eb="2">
+      <t>イチイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チョウフク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>外部キー</t>
+    <rPh sb="0" eb="2">
+      <t>ガイブ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ほかの表の主キーを参照する</t>
+    <rPh sb="3" eb="4">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>シュ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>射影</t>
+    <rPh sb="0" eb="2">
+      <t>シャエイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>選択</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>結合</t>
+    <rPh sb="0" eb="2">
+      <t>ケツゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>列を取り出す</t>
+    <rPh sb="0" eb="1">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>行を取り出す</t>
+    <rPh sb="0" eb="1">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>複数の表から一つの表を作る</t>
+    <rPh sb="0" eb="2">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ツク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3241,7 +5199,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -3266,21 +5224,10 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -3290,7 +5237,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3327,13 +5274,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="56" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3348,17 +5298,11 @@
     <xf numFmtId="56" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3674,11 +5618,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F78875D1-A6CB-4F62-916D-B7A21946074B}">
-  <dimension ref="A1:D115"/>
+  <dimension ref="A1:D191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C135" sqref="C135"/>
+      <pane ySplit="2" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B187" sqref="B187:B191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3717,10 +5661,10 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -3731,8 +5675,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="13"/>
-      <c r="B4" s="16"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
@@ -3741,8 +5685,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="13"/>
-      <c r="B5" s="16"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
@@ -3751,8 +5695,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="13"/>
-      <c r="B6" s="16"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
@@ -3761,8 +5705,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="13"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="4" t="s">
         <v>11</v>
       </c>
@@ -3771,8 +5715,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A8" s="13"/>
-      <c r="B8" s="17" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="18" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -3783,8 +5727,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="13"/>
-      <c r="B9" s="18"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="4" t="s">
         <v>17</v>
       </c>
@@ -3793,8 +5737,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A10" s="13"/>
-      <c r="B10" s="18"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="4" t="s">
         <v>19</v>
       </c>
@@ -3803,8 +5747,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="13"/>
-      <c r="B11" s="18"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="4" t="s">
         <v>21</v>
       </c>
@@ -3813,8 +5757,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" s="13"/>
-      <c r="B12" s="18"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="4" t="s">
         <v>23</v>
       </c>
@@ -3823,8 +5767,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="13"/>
-      <c r="B13" s="15" t="s">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -3835,8 +5779,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="13"/>
-      <c r="B14" s="15"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
       <c r="C14" s="4" t="s">
         <v>31</v>
       </c>
@@ -3845,7 +5789,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A15" s="13"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="9" t="s">
         <v>33</v>
       </c>
@@ -3857,8 +5801,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16" s="13"/>
-      <c r="B16" s="19" t="s">
+      <c r="A16" s="15"/>
+      <c r="B16" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -3869,8 +5813,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" s="13"/>
-      <c r="B17" s="19"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="14"/>
       <c r="C17" s="4" t="s">
         <v>39</v>
       </c>
@@ -3879,8 +5823,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A18" s="13"/>
-      <c r="B18" s="19"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="4" t="s">
         <v>40</v>
       </c>
@@ -3889,8 +5833,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A19" s="13"/>
-      <c r="B19" s="19"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="14"/>
       <c r="C19" s="4" t="s">
         <v>43</v>
       </c>
@@ -3899,8 +5843,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A20" s="13"/>
-      <c r="B20" s="19"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="14"/>
       <c r="C20" s="4" t="s">
         <v>45</v>
       </c>
@@ -3909,8 +5853,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A21" s="13"/>
-      <c r="B21" s="19" t="s">
+      <c r="A21" s="15"/>
+      <c r="B21" s="14" t="s">
         <v>47</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -3921,8 +5865,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A22" s="13"/>
-      <c r="B22" s="19"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="14"/>
       <c r="C22" s="4" t="s">
         <v>50</v>
       </c>
@@ -3931,8 +5875,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A23" s="13"/>
-      <c r="B23" s="19"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="14"/>
       <c r="C23" s="4" t="s">
         <v>51</v>
       </c>
@@ -3941,8 +5885,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A24" s="13"/>
-      <c r="B24" s="19"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="14"/>
       <c r="C24" s="4" t="s">
         <v>54</v>
       </c>
@@ -3951,7 +5895,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A25" s="13"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="6" t="s">
         <v>56</v>
       </c>
@@ -3963,7 +5907,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A26" s="13"/>
+      <c r="A26" s="15"/>
       <c r="B26" s="7" t="s">
         <v>58</v>
       </c>
@@ -3975,8 +5919,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A27" s="13"/>
-      <c r="B27" s="14" t="s">
+      <c r="A27" s="15"/>
+      <c r="B27" s="12" t="s">
         <v>59</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -3987,8 +5931,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A28" s="13"/>
-      <c r="B28" s="14"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="12"/>
       <c r="C28" s="4" t="s">
         <v>63</v>
       </c>
@@ -3997,8 +5941,8 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A29" s="13"/>
-      <c r="B29" s="14"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="12"/>
       <c r="C29" s="4" t="s">
         <v>64</v>
       </c>
@@ -4007,8 +5951,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A30" s="13"/>
-      <c r="B30" s="14"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="12"/>
       <c r="C30" s="4" t="s">
         <v>66</v>
       </c>
@@ -4017,8 +5961,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A31" s="13"/>
-      <c r="B31" s="14"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="12"/>
       <c r="C31" s="4" t="s">
         <v>68</v>
       </c>
@@ -4027,8 +5971,8 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A32" s="13"/>
-      <c r="B32" s="14"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="12"/>
       <c r="C32" s="4" t="s">
         <v>69</v>
       </c>
@@ -4037,8 +5981,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A33" s="13"/>
-      <c r="B33" s="14"/>
+      <c r="A33" s="15"/>
+      <c r="B33" s="12"/>
       <c r="C33" s="4" t="s">
         <v>72</v>
       </c>
@@ -4047,8 +5991,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A34" s="13"/>
-      <c r="B34" s="14"/>
+      <c r="A34" s="15"/>
+      <c r="B34" s="12"/>
       <c r="C34" s="4" t="s">
         <v>74</v>
       </c>
@@ -4057,8 +6001,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A35" s="13"/>
-      <c r="B35" s="12" t="s">
+      <c r="A35" s="15"/>
+      <c r="B35" s="13" t="s">
         <v>76</v>
       </c>
       <c r="C35" s="4" t="s">
@@ -4069,8 +6013,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A36" s="13"/>
-      <c r="B36" s="12"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="13"/>
       <c r="C36" s="4" t="s">
         <v>79</v>
       </c>
@@ -4079,7 +6023,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="15" t="s">
         <v>82</v>
       </c>
       <c r="B37" s="6" t="s">
@@ -4093,7 +6037,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A38" s="13"/>
+      <c r="A38" s="15"/>
       <c r="B38" s="6" t="s">
         <v>83</v>
       </c>
@@ -4105,7 +6049,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A39" s="13"/>
+      <c r="A39" s="15"/>
       <c r="B39" s="6" t="s">
         <v>86</v>
       </c>
@@ -4117,8 +6061,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A40" s="13"/>
-      <c r="B40" s="14" t="s">
+      <c r="A40" s="15"/>
+      <c r="B40" s="12" t="s">
         <v>89</v>
       </c>
       <c r="C40" s="4" t="s">
@@ -4129,8 +6073,8 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A41" s="13"/>
-      <c r="B41" s="14"/>
+      <c r="A41" s="15"/>
+      <c r="B41" s="12"/>
       <c r="C41" s="4" t="s">
         <v>92</v>
       </c>
@@ -4139,8 +6083,8 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A42" s="13"/>
-      <c r="B42" s="14" t="s">
+      <c r="A42" s="15"/>
+      <c r="B42" s="12" t="s">
         <v>94</v>
       </c>
       <c r="C42" s="4" t="s">
@@ -4151,8 +6095,8 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A43" s="13"/>
-      <c r="B43" s="14"/>
+      <c r="A43" s="15"/>
+      <c r="B43" s="12"/>
       <c r="C43" s="4" t="s">
         <v>97</v>
       </c>
@@ -4161,8 +6105,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A44" s="13"/>
-      <c r="B44" s="19" t="s">
+      <c r="A44" s="15"/>
+      <c r="B44" s="14" t="s">
         <v>99</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -4173,8 +6117,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A45" s="13"/>
-      <c r="B45" s="19"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="14"/>
       <c r="C45" s="4" t="s">
         <v>102</v>
       </c>
@@ -4183,8 +6127,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A46" s="13"/>
-      <c r="B46" s="19"/>
+      <c r="A46" s="15"/>
+      <c r="B46" s="14"/>
       <c r="C46" s="4" t="s">
         <v>104</v>
       </c>
@@ -4193,8 +6137,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A47" s="13"/>
-      <c r="B47" s="19"/>
+      <c r="A47" s="15"/>
+      <c r="B47" s="14"/>
       <c r="C47" s="4" t="s">
         <v>106</v>
       </c>
@@ -4203,8 +6147,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A48" s="13"/>
-      <c r="B48" s="19" t="s">
+      <c r="A48" s="15"/>
+      <c r="B48" s="14" t="s">
         <v>108</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -4215,8 +6159,8 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A49" s="13"/>
-      <c r="B49" s="19"/>
+      <c r="A49" s="15"/>
+      <c r="B49" s="14"/>
       <c r="C49" s="4" t="s">
         <v>111</v>
       </c>
@@ -4225,8 +6169,8 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A50" s="13"/>
-      <c r="B50" s="19"/>
+      <c r="A50" s="15"/>
+      <c r="B50" s="14"/>
       <c r="C50" s="4" t="s">
         <v>113</v>
       </c>
@@ -4235,8 +6179,8 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A51" s="13"/>
-      <c r="B51" s="19"/>
+      <c r="A51" s="15"/>
+      <c r="B51" s="14"/>
       <c r="C51" s="4" t="s">
         <v>115</v>
       </c>
@@ -4245,8 +6189,8 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A52" s="13"/>
-      <c r="B52" s="19"/>
+      <c r="A52" s="15"/>
+      <c r="B52" s="14"/>
       <c r="C52" s="4" t="s">
         <v>117</v>
       </c>
@@ -4255,8 +6199,8 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A53" s="13"/>
-      <c r="B53" s="19"/>
+      <c r="A53" s="15"/>
+      <c r="B53" s="14"/>
       <c r="C53" s="4" t="s">
         <v>119</v>
       </c>
@@ -4265,8 +6209,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A54" s="13"/>
-      <c r="B54" s="19"/>
+      <c r="A54" s="15"/>
+      <c r="B54" s="14"/>
       <c r="C54" s="4" t="s">
         <v>121</v>
       </c>
@@ -4275,8 +6219,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A55" s="13"/>
-      <c r="B55" s="19"/>
+      <c r="A55" s="15"/>
+      <c r="B55" s="14"/>
       <c r="C55" s="4" t="s">
         <v>122</v>
       </c>
@@ -4285,7 +6229,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A56" s="13" t="s">
+      <c r="A56" s="15" t="s">
         <v>125</v>
       </c>
       <c r="B56" s="10" t="s">
@@ -4299,7 +6243,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A57" s="13"/>
+      <c r="A57" s="15"/>
       <c r="B57" s="10" t="s">
         <v>129</v>
       </c>
@@ -4311,8 +6255,8 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A58" s="13"/>
-      <c r="B58" s="12" t="s">
+      <c r="A58" s="15"/>
+      <c r="B58" s="13" t="s">
         <v>131</v>
       </c>
       <c r="C58" s="4" t="s">
@@ -4323,8 +6267,8 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A59" s="13"/>
-      <c r="B59" s="12"/>
+      <c r="A59" s="15"/>
+      <c r="B59" s="13"/>
       <c r="C59" s="4" t="s">
         <v>134</v>
       </c>
@@ -4333,8 +6277,8 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A60" s="13"/>
-      <c r="B60" s="12"/>
+      <c r="A60" s="15"/>
+      <c r="B60" s="13"/>
       <c r="C60" s="4" t="s">
         <v>136</v>
       </c>
@@ -4343,8 +6287,8 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A61" s="13"/>
-      <c r="B61" s="12"/>
+      <c r="A61" s="15"/>
+      <c r="B61" s="13"/>
       <c r="C61" s="4" t="s">
         <v>138</v>
       </c>
@@ -4353,8 +6297,8 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A62" s="13"/>
-      <c r="B62" s="12"/>
+      <c r="A62" s="15"/>
+      <c r="B62" s="13"/>
       <c r="C62" s="4" t="s">
         <v>140</v>
       </c>
@@ -4363,8 +6307,8 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A63" s="13"/>
-      <c r="B63" s="12"/>
+      <c r="A63" s="15"/>
+      <c r="B63" s="13"/>
       <c r="C63" s="4" t="s">
         <v>142</v>
       </c>
@@ -4373,8 +6317,8 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A64" s="13"/>
-      <c r="B64" s="12"/>
+      <c r="A64" s="15"/>
+      <c r="B64" s="13"/>
       <c r="C64" s="4" t="s">
         <v>144</v>
       </c>
@@ -4383,7 +6327,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A65" s="13"/>
+      <c r="A65" s="15"/>
       <c r="B65" s="10" t="s">
         <v>146</v>
       </c>
@@ -4395,8 +6339,8 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A66" s="13"/>
-      <c r="B66" s="19" t="s">
+      <c r="A66" s="15"/>
+      <c r="B66" s="14" t="s">
         <v>150</v>
       </c>
       <c r="C66" s="4" t="s">
@@ -4407,8 +6351,8 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A67" s="13"/>
-      <c r="B67" s="19"/>
+      <c r="A67" s="15"/>
+      <c r="B67" s="14"/>
       <c r="C67" s="4" t="s">
         <v>154</v>
       </c>
@@ -4417,8 +6361,8 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A68" s="13"/>
-      <c r="B68" s="19"/>
+      <c r="A68" s="15"/>
+      <c r="B68" s="14"/>
       <c r="C68" s="4" t="s">
         <v>155</v>
       </c>
@@ -4427,8 +6371,8 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A69" s="13"/>
-      <c r="B69" s="19"/>
+      <c r="A69" s="15"/>
+      <c r="B69" s="14"/>
       <c r="C69" s="4" t="s">
         <v>156</v>
       </c>
@@ -4437,8 +6381,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A70" s="13"/>
-      <c r="B70" s="19"/>
+      <c r="A70" s="15"/>
+      <c r="B70" s="14"/>
       <c r="C70" s="4" t="s">
         <v>160</v>
       </c>
@@ -4447,8 +6391,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A71" s="13"/>
-      <c r="B71" s="19"/>
+      <c r="A71" s="15"/>
+      <c r="B71" s="14"/>
       <c r="C71" s="4" t="s">
         <v>162</v>
       </c>
@@ -4457,8 +6401,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A72" s="13"/>
-      <c r="B72" s="19"/>
+      <c r="A72" s="15"/>
+      <c r="B72" s="14"/>
       <c r="C72" s="4" t="s">
         <v>164</v>
       </c>
@@ -4467,8 +6411,8 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A73" s="13"/>
-      <c r="B73" s="19"/>
+      <c r="A73" s="15"/>
+      <c r="B73" s="14"/>
       <c r="C73" s="4" t="s">
         <v>166</v>
       </c>
@@ -4477,8 +6421,8 @@
       </c>
     </row>
     <row r="74" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A74" s="13"/>
-      <c r="B74" s="19"/>
+      <c r="A74" s="15"/>
+      <c r="B74" s="14"/>
       <c r="C74" s="4" t="s">
         <v>168</v>
       </c>
@@ -4487,8 +6431,8 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A75" s="13"/>
-      <c r="B75" s="19" t="s">
+      <c r="A75" s="15"/>
+      <c r="B75" s="14" t="s">
         <v>174</v>
       </c>
       <c r="C75" s="4" t="s">
@@ -4499,8 +6443,8 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A76" s="13"/>
-      <c r="B76" s="19"/>
+      <c r="A76" s="15"/>
+      <c r="B76" s="14"/>
       <c r="C76" s="4" t="s">
         <v>172</v>
       </c>
@@ -4509,8 +6453,8 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A77" s="13"/>
-      <c r="B77" s="12" t="s">
+      <c r="A77" s="15"/>
+      <c r="B77" s="13" t="s">
         <v>175</v>
       </c>
       <c r="C77" s="4" t="s">
@@ -4521,8 +6465,8 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A78" s="13"/>
-      <c r="B78" s="12"/>
+      <c r="A78" s="15"/>
+      <c r="B78" s="13"/>
       <c r="C78" s="4" t="s">
         <v>178</v>
       </c>
@@ -4531,8 +6475,8 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A79" s="13"/>
-      <c r="B79" s="12"/>
+      <c r="A79" s="15"/>
+      <c r="B79" s="13"/>
       <c r="C79" s="4" t="s">
         <v>179</v>
       </c>
@@ -4541,8 +6485,8 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A80" s="13"/>
-      <c r="B80" s="12"/>
+      <c r="A80" s="15"/>
+      <c r="B80" s="13"/>
       <c r="C80" s="4" t="s">
         <v>180</v>
       </c>
@@ -4551,8 +6495,8 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A81" s="13"/>
-      <c r="B81" s="12"/>
+      <c r="A81" s="15"/>
+      <c r="B81" s="13"/>
       <c r="C81" s="4" t="s">
         <v>184</v>
       </c>
@@ -4561,8 +6505,8 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A82" s="13"/>
-      <c r="B82" s="12"/>
+      <c r="A82" s="15"/>
+      <c r="B82" s="13"/>
       <c r="C82" s="4" t="s">
         <v>187</v>
       </c>
@@ -4571,7 +6515,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A83" s="13"/>
+      <c r="A83" s="15"/>
       <c r="B83" s="10" t="s">
         <v>188</v>
       </c>
@@ -4583,8 +6527,8 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A84" s="13"/>
-      <c r="B84" s="12" t="s">
+      <c r="A84" s="15"/>
+      <c r="B84" s="13" t="s">
         <v>190</v>
       </c>
       <c r="C84" s="4" t="s">
@@ -4595,8 +6539,8 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A85" s="13"/>
-      <c r="B85" s="12"/>
+      <c r="A85" s="15"/>
+      <c r="B85" s="13"/>
       <c r="C85" s="4" t="s">
         <v>193</v>
       </c>
@@ -4605,8 +6549,8 @@
       </c>
     </row>
     <row r="86" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A86" s="13"/>
-      <c r="B86" s="12" t="s">
+      <c r="A86" s="15"/>
+      <c r="B86" s="13" t="s">
         <v>195</v>
       </c>
       <c r="C86" s="4" t="s">
@@ -4617,8 +6561,8 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A87" s="13"/>
-      <c r="B87" s="12"/>
+      <c r="A87" s="15"/>
+      <c r="B87" s="13"/>
       <c r="C87" s="4" t="s">
         <v>198</v>
       </c>
@@ -4627,7 +6571,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A88" s="21" t="s">
+      <c r="A88" s="15" t="s">
         <v>200</v>
       </c>
       <c r="B88" s="10" t="s">
@@ -4641,8 +6585,8 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A89" s="22"/>
-      <c r="B89" s="19" t="s">
+      <c r="A89" s="15"/>
+      <c r="B89" s="14" t="s">
         <v>204</v>
       </c>
       <c r="C89" s="4" t="s">
@@ -4653,8 +6597,8 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A90" s="22"/>
-      <c r="B90" s="19"/>
+      <c r="A90" s="15"/>
+      <c r="B90" s="14"/>
       <c r="C90" s="4" t="s">
         <v>207</v>
       </c>
@@ -4663,8 +6607,8 @@
       </c>
     </row>
     <row r="91" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A91" s="22"/>
-      <c r="B91" s="19"/>
+      <c r="A91" s="15"/>
+      <c r="B91" s="14"/>
       <c r="C91" s="4" t="s">
         <v>209</v>
       </c>
@@ -4673,8 +6617,8 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A92" s="22"/>
-      <c r="B92" s="19"/>
+      <c r="A92" s="15"/>
+      <c r="B92" s="14"/>
       <c r="C92" s="4" t="s">
         <v>211</v>
       </c>
@@ -4683,8 +6627,8 @@
       </c>
     </row>
     <row r="93" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A93" s="22"/>
-      <c r="B93" s="19"/>
+      <c r="A93" s="15"/>
+      <c r="B93" s="14"/>
       <c r="C93" s="4" t="s">
         <v>213</v>
       </c>
@@ -4693,8 +6637,8 @@
       </c>
     </row>
     <row r="94" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A94" s="22"/>
-      <c r="B94" s="19" t="s">
+      <c r="A94" s="15"/>
+      <c r="B94" s="14" t="s">
         <v>215</v>
       </c>
       <c r="C94" s="4" t="s">
@@ -4705,8 +6649,8 @@
       </c>
     </row>
     <row r="95" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A95" s="22"/>
-      <c r="B95" s="19"/>
+      <c r="A95" s="15"/>
+      <c r="B95" s="14"/>
       <c r="C95" s="4" t="s">
         <v>218</v>
       </c>
@@ -4715,7 +6659,7 @@
       </c>
     </row>
     <row r="96" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A96" s="22"/>
+      <c r="A96" s="15"/>
       <c r="B96" s="11" t="s">
         <v>220</v>
       </c>
@@ -4727,8 +6671,8 @@
       </c>
     </row>
     <row r="97" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A97" s="22"/>
-      <c r="B97" s="19" t="s">
+      <c r="A97" s="15"/>
+      <c r="B97" s="14" t="s">
         <v>223</v>
       </c>
       <c r="C97" s="4" t="s">
@@ -4739,8 +6683,8 @@
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A98" s="22"/>
-      <c r="B98" s="19"/>
+      <c r="A98" s="15"/>
+      <c r="B98" s="14"/>
       <c r="C98" s="4" t="s">
         <v>226</v>
       </c>
@@ -4749,8 +6693,8 @@
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A99" s="22"/>
-      <c r="B99" s="19"/>
+      <c r="A99" s="15"/>
+      <c r="B99" s="14"/>
       <c r="C99" s="4" t="s">
         <v>228</v>
       </c>
@@ -4759,8 +6703,8 @@
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A100" s="22"/>
-      <c r="B100" s="19"/>
+      <c r="A100" s="15"/>
+      <c r="B100" s="14"/>
       <c r="C100" s="4" t="s">
         <v>230</v>
       </c>
@@ -4769,8 +6713,8 @@
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A101" s="22"/>
-      <c r="B101" s="19"/>
+      <c r="A101" s="15"/>
+      <c r="B101" s="14"/>
       <c r="C101" s="4" t="s">
         <v>232</v>
       </c>
@@ -4778,9 +6722,9 @@
         <v>233</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A102" s="22"/>
-      <c r="B102" s="19" t="s">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A102" s="15"/>
+      <c r="B102" s="14" t="s">
         <v>234</v>
       </c>
       <c r="C102" s="4" t="s">
@@ -4791,8 +6735,8 @@
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A103" s="22"/>
-      <c r="B103" s="19"/>
+      <c r="A103" s="15"/>
+      <c r="B103" s="14"/>
       <c r="C103" s="4" t="s">
         <v>237</v>
       </c>
@@ -4801,8 +6745,8 @@
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A104" s="22"/>
-      <c r="B104" s="19"/>
+      <c r="A104" s="15"/>
+      <c r="B104" s="14"/>
       <c r="C104" s="4" t="s">
         <v>238</v>
       </c>
@@ -4811,8 +6755,8 @@
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A105" s="22"/>
-      <c r="B105" s="19"/>
+      <c r="A105" s="15"/>
+      <c r="B105" s="14"/>
       <c r="C105" s="4" t="s">
         <v>241</v>
       </c>
@@ -4821,8 +6765,8 @@
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A106" s="22"/>
-      <c r="B106" s="19"/>
+      <c r="A106" s="15"/>
+      <c r="B106" s="14"/>
       <c r="C106" s="4" t="s">
         <v>243</v>
       </c>
@@ -4831,8 +6775,8 @@
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A107" s="22"/>
-      <c r="B107" s="19"/>
+      <c r="A107" s="15"/>
+      <c r="B107" s="14"/>
       <c r="C107" s="4" t="s">
         <v>245</v>
       </c>
@@ -4840,9 +6784,9 @@
         <v>246</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A108" s="22"/>
-      <c r="B108" s="19" t="s">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A108" s="15"/>
+      <c r="B108" s="14" t="s">
         <v>247</v>
       </c>
       <c r="C108" s="4" t="s">
@@ -4853,8 +6797,8 @@
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A109" s="22"/>
-      <c r="B109" s="19"/>
+      <c r="A109" s="15"/>
+      <c r="B109" s="14"/>
       <c r="C109" s="4" t="s">
         <v>250</v>
       </c>
@@ -4863,8 +6807,8 @@
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A110" s="22"/>
-      <c r="B110" s="19"/>
+      <c r="A110" s="15"/>
+      <c r="B110" s="14"/>
       <c r="C110" s="4" t="s">
         <v>252</v>
       </c>
@@ -4873,8 +6817,8 @@
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A111" s="22"/>
-      <c r="B111" s="19"/>
+      <c r="A111" s="15"/>
+      <c r="B111" s="14"/>
       <c r="C111" s="4" t="s">
         <v>254</v>
       </c>
@@ -4882,11 +6826,11 @@
         <v>255</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A112" s="20" t="s">
+    <row r="112" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A112" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="B112" s="12" t="s">
+      <c r="B112" s="13" t="s">
         <v>257</v>
       </c>
       <c r="C112" s="4" t="s">
@@ -4897,8 +6841,8 @@
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A113" s="20"/>
-      <c r="B113" s="12"/>
+      <c r="A113" s="15"/>
+      <c r="B113" s="13"/>
       <c r="C113" s="4" t="s">
         <v>260</v>
       </c>
@@ -4907,8 +6851,8 @@
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A114" s="20"/>
-      <c r="B114" s="12"/>
+      <c r="A114" s="15"/>
+      <c r="B114" s="13"/>
       <c r="C114" s="4" t="s">
         <v>262</v>
       </c>
@@ -4917,8 +6861,8 @@
       </c>
     </row>
     <row r="115" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A115" s="20"/>
-      <c r="B115" s="12"/>
+      <c r="A115" s="15"/>
+      <c r="B115" s="13"/>
       <c r="C115" s="4" t="s">
         <v>264</v>
       </c>
@@ -4926,11 +6870,839 @@
         <v>265</v>
       </c>
     </row>
+    <row r="116" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A116" s="15"/>
+      <c r="B116" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A117" s="15"/>
+      <c r="B117" s="14"/>
+      <c r="C117" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A118" s="15"/>
+      <c r="B118" s="14"/>
+      <c r="C118" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A119" s="15"/>
+      <c r="B119" s="14"/>
+      <c r="C119" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A120" s="15"/>
+      <c r="B120" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A121" s="15"/>
+      <c r="B121" s="12"/>
+      <c r="C121" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A122" s="15"/>
+      <c r="B122" s="12"/>
+      <c r="C122" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A123" s="15"/>
+      <c r="B123" s="12"/>
+      <c r="C123" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A124" s="15"/>
+      <c r="B124" s="12"/>
+      <c r="C124" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A125" s="15"/>
+      <c r="B125" s="12"/>
+      <c r="C125" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A126" s="15"/>
+      <c r="B126" s="12"/>
+      <c r="C126" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A127" s="15"/>
+      <c r="B127" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A128" s="15"/>
+      <c r="B128" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A129" s="15"/>
+      <c r="B129" s="12"/>
+      <c r="C129" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A130" s="15"/>
+      <c r="B130" s="12"/>
+      <c r="C130" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A131" s="15"/>
+      <c r="B131" s="12"/>
+      <c r="C131" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A132" s="15"/>
+      <c r="B132" s="12"/>
+      <c r="C132" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A133" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="B133" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A134" s="15"/>
+      <c r="B134" s="12"/>
+      <c r="C134" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A135" s="15"/>
+      <c r="B135" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A136" s="15"/>
+      <c r="B136" s="12"/>
+      <c r="C136" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A137" s="15"/>
+      <c r="B137" s="12"/>
+      <c r="C137" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A138" s="15"/>
+      <c r="B138" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A139" s="15"/>
+      <c r="B139" s="14"/>
+      <c r="C139" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A140" s="15"/>
+      <c r="B140" s="14"/>
+      <c r="C140" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A141" s="15"/>
+      <c r="B141" s="14"/>
+      <c r="C141" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A142" s="15"/>
+      <c r="B142" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A143" s="15"/>
+      <c r="B143" s="14"/>
+      <c r="C143" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A144" s="15"/>
+      <c r="B144" s="14"/>
+      <c r="C144" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A145" s="15"/>
+      <c r="B145" s="14"/>
+      <c r="C145" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A146" s="15"/>
+      <c r="B146" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A147" s="15"/>
+      <c r="B147" s="13"/>
+      <c r="C147" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A148" s="15"/>
+      <c r="B148" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A149" s="15"/>
+      <c r="B149" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A150" s="15"/>
+      <c r="B150" s="12"/>
+      <c r="C150" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A151" s="15"/>
+      <c r="B151" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A152" s="15"/>
+      <c r="B152" s="12"/>
+      <c r="C152" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A153" s="15"/>
+      <c r="B153" s="12"/>
+      <c r="C153" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A154" s="15"/>
+      <c r="B154" s="12"/>
+      <c r="C154" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A155" s="15"/>
+      <c r="B155" s="12"/>
+      <c r="C155" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A156" s="15"/>
+      <c r="B156" s="12"/>
+      <c r="C156" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="D156" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A157" s="15"/>
+      <c r="B157" s="12"/>
+      <c r="C157" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="D157" s="5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A158" s="15"/>
+      <c r="B158" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A159" s="15"/>
+      <c r="B159" s="13"/>
+      <c r="C159" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A160" s="15"/>
+      <c r="B160" s="13"/>
+      <c r="C160" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="D160" s="4" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A161" s="15"/>
+      <c r="B161" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A162" s="15"/>
+      <c r="B162" s="12"/>
+      <c r="C162" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A163" s="15"/>
+      <c r="B163" s="12"/>
+      <c r="C163" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A164" s="15"/>
+      <c r="B164" s="12"/>
+      <c r="C164" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="D164" s="4" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A165" s="15"/>
+      <c r="B165" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A166" s="15"/>
+      <c r="B166" s="12"/>
+      <c r="C166" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A167" s="15"/>
+      <c r="B167" s="12"/>
+      <c r="C167" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="D167" s="4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A168" s="15"/>
+      <c r="B168" s="12"/>
+      <c r="C168" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="D168" s="4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A169" s="15"/>
+      <c r="B169" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="D169" s="4" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A170" s="15"/>
+      <c r="B170" s="12"/>
+      <c r="C170" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="D170" s="4" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A171" s="15"/>
+      <c r="B171" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A172" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="B172" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="D172" s="5" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A173" s="15"/>
+      <c r="B173" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="D173" s="4" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A174" s="15"/>
+      <c r="B174" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="D174" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A175" s="15"/>
+      <c r="B175" s="12"/>
+      <c r="C175" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="D175" s="4" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A176" s="15"/>
+      <c r="B176" s="12"/>
+      <c r="C176" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="D176" s="4" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A177" s="15"/>
+      <c r="B177" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="D177" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A178" s="15"/>
+      <c r="B178" s="12"/>
+      <c r="C178" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="D178" s="4" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A179" s="15"/>
+      <c r="B179" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="D179" s="4" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A180" s="15"/>
+      <c r="B180" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="D180" s="5" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A181" s="15"/>
+      <c r="B181" s="12"/>
+      <c r="C181" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="D181" s="5" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A182" s="15"/>
+      <c r="B182" s="12"/>
+      <c r="C182" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="D182" s="5" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A183" s="15"/>
+      <c r="B183" s="12"/>
+      <c r="C183" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="D183" s="5" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A184" s="15"/>
+      <c r="B184" s="13" t="s">
+        <v>427</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="D184" s="5" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A185" s="15"/>
+      <c r="B185" s="13"/>
+      <c r="C185" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="D185" s="5" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A186" s="21" t="s">
+        <v>432</v>
+      </c>
+      <c r="B186" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="D186" s="4" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A187" s="20"/>
+      <c r="B187" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="D187" s="4" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A188" s="20"/>
+      <c r="B188" s="12"/>
+      <c r="C188" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="D188" s="4" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A189" s="20"/>
+      <c r="B189" s="12"/>
+      <c r="C189" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="D189" s="4" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A190" s="20"/>
+      <c r="B190" s="12"/>
+      <c r="C190" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="D190" s="4" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A191" s="20"/>
+      <c r="B191" s="12"/>
+      <c r="C191" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="D191" s="4" t="s">
+        <v>446</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="50">
+    <mergeCell ref="B180:B183"/>
+    <mergeCell ref="B184:B185"/>
+    <mergeCell ref="A172:A185"/>
+    <mergeCell ref="A186:A191"/>
+    <mergeCell ref="B187:B191"/>
+    <mergeCell ref="B116:B119"/>
+    <mergeCell ref="B120:B126"/>
+    <mergeCell ref="B128:B132"/>
+    <mergeCell ref="A112:A132"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="A133:A171"/>
     <mergeCell ref="A88:A111"/>
     <mergeCell ref="B112:B115"/>
-    <mergeCell ref="A112:A115"/>
     <mergeCell ref="B89:B93"/>
     <mergeCell ref="B94:B95"/>
     <mergeCell ref="B97:B101"/>
@@ -4956,6 +7728,18 @@
     <mergeCell ref="B42:B43"/>
     <mergeCell ref="B44:B47"/>
     <mergeCell ref="B48:B55"/>
+    <mergeCell ref="B135:B137"/>
+    <mergeCell ref="B138:B141"/>
+    <mergeCell ref="B142:B145"/>
+    <mergeCell ref="B146:B147"/>
+    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="B174:B176"/>
+    <mergeCell ref="B177:B178"/>
+    <mergeCell ref="B151:B157"/>
+    <mergeCell ref="B158:B160"/>
+    <mergeCell ref="B161:B164"/>
+    <mergeCell ref="B165:B168"/>
+    <mergeCell ref="B169:B170"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/02_working/09_FE/FE_study.xlsx
+++ b/02_working/09_FE/FE_study.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\梶原裕希\Documents\GitHub\citizen_task\02_working\09_FE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3055EE7B-F2FA-47CE-9368-052723D3189F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98744E1-4C57-48E9-9FE0-1717989D931D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11295" xr2:uid="{F62E7494-60D8-4C1F-8FB8-918B8ADB4093}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="521">
   <si>
     <t>基本情報技術者教室「くれば」まとめ</t>
     <rPh sb="0" eb="2">
@@ -5125,6 +5125,928 @@
     </rPh>
     <rPh sb="11" eb="12">
       <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8ー03
+正規化</t>
+    <rPh sb="5" eb="8">
+      <t>セイキカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>正規化の目的</t>
+    <rPh sb="0" eb="3">
+      <t>セイキカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>モクテキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>データの重複や矛盾を排除する</t>
+    <rPh sb="4" eb="6">
+      <t>チョウフク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ムジュン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハイジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>第1正規化</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>セイキカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>繰返し項目を分割する</t>
+    <rPh sb="0" eb="2">
+      <t>クリカエ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ブンカツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>第2正規化</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>セイキカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>主キーになっている項目の一部だけで決定される項目を分割する</t>
+    <rPh sb="0" eb="1">
+      <t>シュ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ケッテイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ブンカツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>第3正規化</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>セイキカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>主キー以外の項目によって決定される項目を分割する
+同時に計算で求められる項目を削除する</t>
+    <rPh sb="0" eb="1">
+      <t>シュ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ケッテイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ブンカツ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8ー04
+排他制御と2相コミット</t>
+    <rPh sb="5" eb="7">
+      <t>ハイタ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>排他制御</t>
+    <rPh sb="0" eb="2">
+      <t>ハイタ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>データの不整合(論理的な矛盾)を防ぐ</t>
+    <rPh sb="4" eb="7">
+      <t>フセイゴウ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ロンリテキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ムジュン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>フセ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>デッドロック</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>お互いのロック解除待ち</t>
+    <rPh sb="1" eb="2">
+      <t>タガ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイジョ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>マ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2相コミット</t>
+    <rPh sb="1" eb="2">
+      <t>ソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コミットかロールバックか中間状態を設定</t>
+    <rPh sb="12" eb="14">
+      <t>チュウカン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8ー05
+バックアップと
+データベース復旧</t>
+    <rPh sb="19" eb="21">
+      <t>フッキュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>フルバックアップ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>全体のバックアップ</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>差分バックアップ</t>
+    <rPh sb="0" eb="2">
+      <t>サブン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>フルバックアップ以降の変更点をバックアップ</t>
+    <rPh sb="8" eb="10">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ヘンコウテン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>増分バックアップ</t>
+    <rPh sb="0" eb="2">
+      <t>ゾウブン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>直前のバックアップ以降の変更点をバックアップ</t>
+    <rPh sb="0" eb="2">
+      <t>チョクゼン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ヘンコウテン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ロールフォワード</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ロールバック</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>物理的障害
+バックアップファイルとジャーナルファイルの更新後情報で前進復帰</t>
+    <rPh sb="0" eb="3">
+      <t>ブツリテキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショウガイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ゼンシン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>フッキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>論理的障害
+データベースとジャーナルファイルの更新前情報で後退復帰</t>
+    <rPh sb="0" eb="3">
+      <t>ロンリテキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショウガイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>コウタイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>フッキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8ー06
+SQL(基本)</t>
+    <rPh sb="9" eb="11">
+      <t>キホン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>論理演算の優先順位の高い順</t>
+    <rPh sb="0" eb="2">
+      <t>ロンリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>エンザン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ユウセン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジュンイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ジュン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>()→NOT→AND→OR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇、△</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇表にある△列</t>
+    <rPh sb="1" eb="2">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DISTINCT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>重複行を取り除く</t>
+    <rPh sb="0" eb="2">
+      <t>チョウフク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ノゾ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8ー07
+SQL(並べ替え・グループ化)</t>
+    <rPh sb="9" eb="10">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ORDER BY</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>並べ替え、ASC(昇順)、DESC(降順)</t>
+    <rPh sb="0" eb="1">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショウジュン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウジュン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>COUNT(*)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>行数を求める</t>
+    <rPh sb="0" eb="2">
+      <t>ギョウスウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GROUP BY</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>グループ化</t>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AS</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>別名を付ける</t>
+    <rPh sb="0" eb="2">
+      <t>ベツメイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>HAVING</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>グループに対する条件を付ける</t>
+    <rPh sb="5" eb="6">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8ー08
+SQL(副問合せ)</t>
+    <rPh sb="9" eb="10">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>トイアワ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>第9章
+情報セキュリティ</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>9ー01
+情報セキュリティ</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>情報セキュリティの3要素</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヨウソ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>機密性、完全性、可用性</t>
+    <rPh sb="0" eb="3">
+      <t>キミツセイ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>カンゼンセイ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>カヨウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>9ー02
+マルウェアとサイバー攻撃</t>
+    <rPh sb="15" eb="17">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ウイルスに感染</t>
+    <rPh sb="5" eb="7">
+      <t>カンセン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>まずはネットワークから切り離す</t>
+    <rPh sb="11" eb="12">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ハナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>9ー03
+暗号化方式</t>
+    <rPh sb="5" eb="8">
+      <t>アンゴウカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ホウシキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>共通鍵暗号方式</t>
+    <rPh sb="0" eb="2">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>アンゴウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ホウシキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>暗号化鍵＝複合鍵
+共通の秘密鍵で暗号化／共通の秘密鍵で復号
+代表例 DES</t>
+    <rPh sb="0" eb="3">
+      <t>アンゴウカ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>フクゴウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒミツ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>アンゴウカ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒミツ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>フクゴウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ダイヒョウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>公開鍵暗号方式</t>
+    <rPh sb="0" eb="2">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>アンゴウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ホウシキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>暗号化鍵≠復号鍵
+受信者の公開鍵で暗号化／受信者の秘密鍵で復号
+代表例 RSA</t>
+    <rPh sb="0" eb="3">
+      <t>アンゴウカ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>フクゴウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ジュシンシャ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>アンゴウカ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>ジュシンシャ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒミツ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>フクゴウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ダイヒョウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ディジタル署名</t>
+    <rPh sb="5" eb="7">
+      <t>ショメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>送信者の秘密鍵で暗号化／送信者の公開鍵で復号
+①本人認証 ②改ざんの有無の確認</t>
+    <rPh sb="0" eb="3">
+      <t>ソウシンシャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒミツ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>アンゴウカ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ソウシンシャ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>フクゴウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ホンニン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ウム</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ハッシュ化</t>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>改ざんの有無の確認</t>
+    <rPh sb="0" eb="1">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ウム</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>認証局</t>
+    <rPh sb="0" eb="2">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>公開鍵の正当性を保障する</t>
+    <rPh sb="0" eb="2">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>セイトウセイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ホショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>9ー04
+ネットワークセキュリティ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ファイアウォール</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>外部からの不正アクセスを防止する</t>
+    <rPh sb="0" eb="2">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ボウシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>第10章
+情報化と経営</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ジョウホウカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケイエイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10ー1
+関連法規</t>
+    <rPh sb="5" eb="7">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ホウキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>著作権</t>
+    <rPh sb="0" eb="3">
+      <t>チョサクケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>著作物を創作した時点で発生する
+プログラム言語や規約、解法(アルゴリズム)は保護対象外</t>
+    <rPh sb="0" eb="3">
+      <t>チョサクブツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ソウサク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジテン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ゲンゴ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>キヤク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カイホウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ホゴ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ガイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>労働基準法</t>
+    <rPh sb="0" eb="2">
+      <t>ロウドウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>キジュンホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>守るべき最低限の基準</t>
+    <rPh sb="0" eb="1">
+      <t>マモ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>サイテイゲン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キジュン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -5199,7 +6121,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -5222,22 +6144,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5277,10 +6190,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5299,10 +6212,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5618,19 +6528,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F78875D1-A6CB-4F62-916D-B7A21946074B}">
-  <dimension ref="A1:D191"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:D222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B187" sqref="B187:B191"/>
+      <pane ySplit="2" topLeftCell="A215" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B223" sqref="B223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="44.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="56.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61.125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -5802,7 +6715,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="15"/>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="13" t="s">
         <v>36</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -5814,7 +6727,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="15"/>
-      <c r="B17" s="14"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="4" t="s">
         <v>39</v>
       </c>
@@ -5824,7 +6737,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="15"/>
-      <c r="B18" s="14"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="4" t="s">
         <v>40</v>
       </c>
@@ -5834,7 +6747,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="15"/>
-      <c r="B19" s="14"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="4" t="s">
         <v>43</v>
       </c>
@@ -5844,7 +6757,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="15"/>
-      <c r="B20" s="14"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="4" t="s">
         <v>45</v>
       </c>
@@ -5854,7 +6767,7 @@
     </row>
     <row r="21" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A21" s="15"/>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="13" t="s">
         <v>47</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -5866,7 +6779,7 @@
     </row>
     <row r="22" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A22" s="15"/>
-      <c r="B22" s="14"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="4" t="s">
         <v>50</v>
       </c>
@@ -5876,7 +6789,7 @@
     </row>
     <row r="23" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A23" s="15"/>
-      <c r="B23" s="14"/>
+      <c r="B23" s="13"/>
       <c r="C23" s="4" t="s">
         <v>51</v>
       </c>
@@ -5886,7 +6799,7 @@
     </row>
     <row r="24" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A24" s="15"/>
-      <c r="B24" s="14"/>
+      <c r="B24" s="13"/>
       <c r="C24" s="4" t="s">
         <v>54</v>
       </c>
@@ -6002,7 +6915,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" s="15"/>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="14" t="s">
         <v>76</v>
       </c>
       <c r="C35" s="4" t="s">
@@ -6014,7 +6927,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" s="15"/>
-      <c r="B36" s="13"/>
+      <c r="B36" s="14"/>
       <c r="C36" s="4" t="s">
         <v>79</v>
       </c>
@@ -6106,7 +7019,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44" s="15"/>
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="13" t="s">
         <v>99</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -6118,7 +7031,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" s="15"/>
-      <c r="B45" s="14"/>
+      <c r="B45" s="13"/>
       <c r="C45" s="4" t="s">
         <v>102</v>
       </c>
@@ -6128,7 +7041,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46" s="15"/>
-      <c r="B46" s="14"/>
+      <c r="B46" s="13"/>
       <c r="C46" s="4" t="s">
         <v>104</v>
       </c>
@@ -6138,7 +7051,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47" s="15"/>
-      <c r="B47" s="14"/>
+      <c r="B47" s="13"/>
       <c r="C47" s="4" t="s">
         <v>106</v>
       </c>
@@ -6148,7 +7061,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48" s="15"/>
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="13" t="s">
         <v>108</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -6160,7 +7073,7 @@
     </row>
     <row r="49" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A49" s="15"/>
-      <c r="B49" s="14"/>
+      <c r="B49" s="13"/>
       <c r="C49" s="4" t="s">
         <v>111</v>
       </c>
@@ -6170,7 +7083,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50" s="15"/>
-      <c r="B50" s="14"/>
+      <c r="B50" s="13"/>
       <c r="C50" s="4" t="s">
         <v>113</v>
       </c>
@@ -6180,7 +7093,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51" s="15"/>
-      <c r="B51" s="14"/>
+      <c r="B51" s="13"/>
       <c r="C51" s="4" t="s">
         <v>115</v>
       </c>
@@ -6190,7 +7103,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52" s="15"/>
-      <c r="B52" s="14"/>
+      <c r="B52" s="13"/>
       <c r="C52" s="4" t="s">
         <v>117</v>
       </c>
@@ -6200,7 +7113,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53" s="15"/>
-      <c r="B53" s="14"/>
+      <c r="B53" s="13"/>
       <c r="C53" s="4" t="s">
         <v>119</v>
       </c>
@@ -6210,7 +7123,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A54" s="15"/>
-      <c r="B54" s="14"/>
+      <c r="B54" s="13"/>
       <c r="C54" s="4" t="s">
         <v>121</v>
       </c>
@@ -6220,7 +7133,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A55" s="15"/>
-      <c r="B55" s="14"/>
+      <c r="B55" s="13"/>
       <c r="C55" s="4" t="s">
         <v>122</v>
       </c>
@@ -6256,7 +7169,7 @@
     </row>
     <row r="58" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A58" s="15"/>
-      <c r="B58" s="13" t="s">
+      <c r="B58" s="14" t="s">
         <v>131</v>
       </c>
       <c r="C58" s="4" t="s">
@@ -6268,7 +7181,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59" s="15"/>
-      <c r="B59" s="13"/>
+      <c r="B59" s="14"/>
       <c r="C59" s="4" t="s">
         <v>134</v>
       </c>
@@ -6278,7 +7191,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A60" s="15"/>
-      <c r="B60" s="13"/>
+      <c r="B60" s="14"/>
       <c r="C60" s="4" t="s">
         <v>136</v>
       </c>
@@ -6288,7 +7201,7 @@
     </row>
     <row r="61" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A61" s="15"/>
-      <c r="B61" s="13"/>
+      <c r="B61" s="14"/>
       <c r="C61" s="4" t="s">
         <v>138</v>
       </c>
@@ -6298,7 +7211,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A62" s="15"/>
-      <c r="B62" s="13"/>
+      <c r="B62" s="14"/>
       <c r="C62" s="4" t="s">
         <v>140</v>
       </c>
@@ -6308,7 +7221,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A63" s="15"/>
-      <c r="B63" s="13"/>
+      <c r="B63" s="14"/>
       <c r="C63" s="4" t="s">
         <v>142</v>
       </c>
@@ -6318,7 +7231,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A64" s="15"/>
-      <c r="B64" s="13"/>
+      <c r="B64" s="14"/>
       <c r="C64" s="4" t="s">
         <v>144</v>
       </c>
@@ -6340,7 +7253,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A66" s="15"/>
-      <c r="B66" s="14" t="s">
+      <c r="B66" s="13" t="s">
         <v>150</v>
       </c>
       <c r="C66" s="4" t="s">
@@ -6352,7 +7265,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A67" s="15"/>
-      <c r="B67" s="14"/>
+      <c r="B67" s="13"/>
       <c r="C67" s="4" t="s">
         <v>154</v>
       </c>
@@ -6362,7 +7275,7 @@
     </row>
     <row r="68" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A68" s="15"/>
-      <c r="B68" s="14"/>
+      <c r="B68" s="13"/>
       <c r="C68" s="4" t="s">
         <v>155</v>
       </c>
@@ -6372,7 +7285,7 @@
     </row>
     <row r="69" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A69" s="15"/>
-      <c r="B69" s="14"/>
+      <c r="B69" s="13"/>
       <c r="C69" s="4" t="s">
         <v>156</v>
       </c>
@@ -6382,7 +7295,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A70" s="15"/>
-      <c r="B70" s="14"/>
+      <c r="B70" s="13"/>
       <c r="C70" s="4" t="s">
         <v>160</v>
       </c>
@@ -6392,7 +7305,7 @@
     </row>
     <row r="71" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A71" s="15"/>
-      <c r="B71" s="14"/>
+      <c r="B71" s="13"/>
       <c r="C71" s="4" t="s">
         <v>162</v>
       </c>
@@ -6402,7 +7315,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A72" s="15"/>
-      <c r="B72" s="14"/>
+      <c r="B72" s="13"/>
       <c r="C72" s="4" t="s">
         <v>164</v>
       </c>
@@ -6412,7 +7325,7 @@
     </row>
     <row r="73" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A73" s="15"/>
-      <c r="B73" s="14"/>
+      <c r="B73" s="13"/>
       <c r="C73" s="4" t="s">
         <v>166</v>
       </c>
@@ -6422,7 +7335,7 @@
     </row>
     <row r="74" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A74" s="15"/>
-      <c r="B74" s="14"/>
+      <c r="B74" s="13"/>
       <c r="C74" s="4" t="s">
         <v>168</v>
       </c>
@@ -6432,7 +7345,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A75" s="15"/>
-      <c r="B75" s="14" t="s">
+      <c r="B75" s="13" t="s">
         <v>174</v>
       </c>
       <c r="C75" s="4" t="s">
@@ -6444,7 +7357,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A76" s="15"/>
-      <c r="B76" s="14"/>
+      <c r="B76" s="13"/>
       <c r="C76" s="4" t="s">
         <v>172</v>
       </c>
@@ -6454,7 +7367,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A77" s="15"/>
-      <c r="B77" s="13" t="s">
+      <c r="B77" s="14" t="s">
         <v>175</v>
       </c>
       <c r="C77" s="4" t="s">
@@ -6466,7 +7379,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A78" s="15"/>
-      <c r="B78" s="13"/>
+      <c r="B78" s="14"/>
       <c r="C78" s="4" t="s">
         <v>178</v>
       </c>
@@ -6476,7 +7389,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A79" s="15"/>
-      <c r="B79" s="13"/>
+      <c r="B79" s="14"/>
       <c r="C79" s="4" t="s">
         <v>179</v>
       </c>
@@ -6486,7 +7399,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A80" s="15"/>
-      <c r="B80" s="13"/>
+      <c r="B80" s="14"/>
       <c r="C80" s="4" t="s">
         <v>180</v>
       </c>
@@ -6496,7 +7409,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A81" s="15"/>
-      <c r="B81" s="13"/>
+      <c r="B81" s="14"/>
       <c r="C81" s="4" t="s">
         <v>184</v>
       </c>
@@ -6506,7 +7419,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A82" s="15"/>
-      <c r="B82" s="13"/>
+      <c r="B82" s="14"/>
       <c r="C82" s="4" t="s">
         <v>187</v>
       </c>
@@ -6528,7 +7441,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A84" s="15"/>
-      <c r="B84" s="13" t="s">
+      <c r="B84" s="14" t="s">
         <v>190</v>
       </c>
       <c r="C84" s="4" t="s">
@@ -6540,7 +7453,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A85" s="15"/>
-      <c r="B85" s="13"/>
+      <c r="B85" s="14"/>
       <c r="C85" s="4" t="s">
         <v>193</v>
       </c>
@@ -6550,7 +7463,7 @@
     </row>
     <row r="86" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A86" s="15"/>
-      <c r="B86" s="13" t="s">
+      <c r="B86" s="14" t="s">
         <v>195</v>
       </c>
       <c r="C86" s="4" t="s">
@@ -6562,7 +7475,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A87" s="15"/>
-      <c r="B87" s="13"/>
+      <c r="B87" s="14"/>
       <c r="C87" s="4" t="s">
         <v>198</v>
       </c>
@@ -6586,7 +7499,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A89" s="15"/>
-      <c r="B89" s="14" t="s">
+      <c r="B89" s="13" t="s">
         <v>204</v>
       </c>
       <c r="C89" s="4" t="s">
@@ -6598,7 +7511,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A90" s="15"/>
-      <c r="B90" s="14"/>
+      <c r="B90" s="13"/>
       <c r="C90" s="4" t="s">
         <v>207</v>
       </c>
@@ -6608,7 +7521,7 @@
     </row>
     <row r="91" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A91" s="15"/>
-      <c r="B91" s="14"/>
+      <c r="B91" s="13"/>
       <c r="C91" s="4" t="s">
         <v>209</v>
       </c>
@@ -6618,7 +7531,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A92" s="15"/>
-      <c r="B92" s="14"/>
+      <c r="B92" s="13"/>
       <c r="C92" s="4" t="s">
         <v>211</v>
       </c>
@@ -6628,7 +7541,7 @@
     </row>
     <row r="93" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A93" s="15"/>
-      <c r="B93" s="14"/>
+      <c r="B93" s="13"/>
       <c r="C93" s="4" t="s">
         <v>213</v>
       </c>
@@ -6638,7 +7551,7 @@
     </row>
     <row r="94" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A94" s="15"/>
-      <c r="B94" s="14" t="s">
+      <c r="B94" s="13" t="s">
         <v>215</v>
       </c>
       <c r="C94" s="4" t="s">
@@ -6650,7 +7563,7 @@
     </row>
     <row r="95" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A95" s="15"/>
-      <c r="B95" s="14"/>
+      <c r="B95" s="13"/>
       <c r="C95" s="4" t="s">
         <v>218</v>
       </c>
@@ -6672,7 +7585,7 @@
     </row>
     <row r="97" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="15"/>
-      <c r="B97" s="14" t="s">
+      <c r="B97" s="13" t="s">
         <v>223</v>
       </c>
       <c r="C97" s="4" t="s">
@@ -6684,7 +7597,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A98" s="15"/>
-      <c r="B98" s="14"/>
+      <c r="B98" s="13"/>
       <c r="C98" s="4" t="s">
         <v>226</v>
       </c>
@@ -6694,7 +7607,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A99" s="15"/>
-      <c r="B99" s="14"/>
+      <c r="B99" s="13"/>
       <c r="C99" s="4" t="s">
         <v>228</v>
       </c>
@@ -6704,7 +7617,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A100" s="15"/>
-      <c r="B100" s="14"/>
+      <c r="B100" s="13"/>
       <c r="C100" s="4" t="s">
         <v>230</v>
       </c>
@@ -6714,7 +7627,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A101" s="15"/>
-      <c r="B101" s="14"/>
+      <c r="B101" s="13"/>
       <c r="C101" s="4" t="s">
         <v>232</v>
       </c>
@@ -6724,7 +7637,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A102" s="15"/>
-      <c r="B102" s="14" t="s">
+      <c r="B102" s="13" t="s">
         <v>234</v>
       </c>
       <c r="C102" s="4" t="s">
@@ -6736,7 +7649,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A103" s="15"/>
-      <c r="B103" s="14"/>
+      <c r="B103" s="13"/>
       <c r="C103" s="4" t="s">
         <v>237</v>
       </c>
@@ -6746,7 +7659,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A104" s="15"/>
-      <c r="B104" s="14"/>
+      <c r="B104" s="13"/>
       <c r="C104" s="4" t="s">
         <v>238</v>
       </c>
@@ -6756,7 +7669,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A105" s="15"/>
-      <c r="B105" s="14"/>
+      <c r="B105" s="13"/>
       <c r="C105" s="4" t="s">
         <v>241</v>
       </c>
@@ -6766,7 +7679,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A106" s="15"/>
-      <c r="B106" s="14"/>
+      <c r="B106" s="13"/>
       <c r="C106" s="4" t="s">
         <v>243</v>
       </c>
@@ -6776,7 +7689,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A107" s="15"/>
-      <c r="B107" s="14"/>
+      <c r="B107" s="13"/>
       <c r="C107" s="4" t="s">
         <v>245</v>
       </c>
@@ -6786,7 +7699,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A108" s="15"/>
-      <c r="B108" s="14" t="s">
+      <c r="B108" s="13" t="s">
         <v>247</v>
       </c>
       <c r="C108" s="4" t="s">
@@ -6798,7 +7711,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A109" s="15"/>
-      <c r="B109" s="14"/>
+      <c r="B109" s="13"/>
       <c r="C109" s="4" t="s">
         <v>250</v>
       </c>
@@ -6808,7 +7721,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A110" s="15"/>
-      <c r="B110" s="14"/>
+      <c r="B110" s="13"/>
       <c r="C110" s="4" t="s">
         <v>252</v>
       </c>
@@ -6818,7 +7731,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A111" s="15"/>
-      <c r="B111" s="14"/>
+      <c r="B111" s="13"/>
       <c r="C111" s="4" t="s">
         <v>254</v>
       </c>
@@ -6830,7 +7743,7 @@
       <c r="A112" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="B112" s="13" t="s">
+      <c r="B112" s="14" t="s">
         <v>257</v>
       </c>
       <c r="C112" s="4" t="s">
@@ -6842,7 +7755,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A113" s="15"/>
-      <c r="B113" s="13"/>
+      <c r="B113" s="14"/>
       <c r="C113" s="4" t="s">
         <v>260</v>
       </c>
@@ -6852,7 +7765,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A114" s="15"/>
-      <c r="B114" s="13"/>
+      <c r="B114" s="14"/>
       <c r="C114" s="4" t="s">
         <v>262</v>
       </c>
@@ -6862,7 +7775,7 @@
     </row>
     <row r="115" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A115" s="15"/>
-      <c r="B115" s="13"/>
+      <c r="B115" s="14"/>
       <c r="C115" s="4" t="s">
         <v>264</v>
       </c>
@@ -6872,7 +7785,7 @@
     </row>
     <row r="116" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A116" s="15"/>
-      <c r="B116" s="14" t="s">
+      <c r="B116" s="13" t="s">
         <v>266</v>
       </c>
       <c r="C116" s="4" t="s">
@@ -6884,7 +7797,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A117" s="15"/>
-      <c r="B117" s="14"/>
+      <c r="B117" s="13"/>
       <c r="C117" s="4" t="s">
         <v>269</v>
       </c>
@@ -6894,7 +7807,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A118" s="15"/>
-      <c r="B118" s="14"/>
+      <c r="B118" s="13"/>
       <c r="C118" s="4" t="s">
         <v>271</v>
       </c>
@@ -6904,7 +7817,7 @@
     </row>
     <row r="119" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A119" s="15"/>
-      <c r="B119" s="14"/>
+      <c r="B119" s="13"/>
       <c r="C119" s="4" t="s">
         <v>273</v>
       </c>
@@ -7106,7 +8019,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A138" s="15"/>
-      <c r="B138" s="14" t="s">
+      <c r="B138" s="13" t="s">
         <v>317</v>
       </c>
       <c r="C138" s="4" t="s">
@@ -7118,7 +8031,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A139" s="15"/>
-      <c r="B139" s="14"/>
+      <c r="B139" s="13"/>
       <c r="C139" s="4" t="s">
         <v>320</v>
       </c>
@@ -7128,7 +8041,7 @@
     </row>
     <row r="140" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A140" s="15"/>
-      <c r="B140" s="14"/>
+      <c r="B140" s="13"/>
       <c r="C140" s="4" t="s">
         <v>322</v>
       </c>
@@ -7138,7 +8051,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A141" s="15"/>
-      <c r="B141" s="14"/>
+      <c r="B141" s="13"/>
       <c r="C141" s="4" t="s">
         <v>324</v>
       </c>
@@ -7148,7 +8061,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A142" s="15"/>
-      <c r="B142" s="14" t="s">
+      <c r="B142" s="13" t="s">
         <v>326</v>
       </c>
       <c r="C142" s="4" t="s">
@@ -7160,7 +8073,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A143" s="15"/>
-      <c r="B143" s="14"/>
+      <c r="B143" s="13"/>
       <c r="C143" s="4" t="s">
         <v>328</v>
       </c>
@@ -7170,7 +8083,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A144" s="15"/>
-      <c r="B144" s="14"/>
+      <c r="B144" s="13"/>
       <c r="C144" s="4" t="s">
         <v>331</v>
       </c>
@@ -7180,7 +8093,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A145" s="15"/>
-      <c r="B145" s="14"/>
+      <c r="B145" s="13"/>
       <c r="C145" s="4" t="s">
         <v>333</v>
       </c>
@@ -7190,7 +8103,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A146" s="15"/>
-      <c r="B146" s="13" t="s">
+      <c r="B146" s="14" t="s">
         <v>335</v>
       </c>
       <c r="C146" s="4" t="s">
@@ -7202,7 +8115,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A147" s="15"/>
-      <c r="B147" s="13"/>
+      <c r="B147" s="14"/>
       <c r="C147" s="4" t="s">
         <v>338</v>
       </c>
@@ -7318,7 +8231,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A158" s="15"/>
-      <c r="B158" s="13" t="s">
+      <c r="B158" s="14" t="s">
         <v>363</v>
       </c>
       <c r="C158" s="4" t="s">
@@ -7330,7 +8243,7 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A159" s="15"/>
-      <c r="B159" s="13"/>
+      <c r="B159" s="14"/>
       <c r="C159" s="4" t="s">
         <v>365</v>
       </c>
@@ -7340,7 +8253,7 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A160" s="15"/>
-      <c r="B160" s="13"/>
+      <c r="B160" s="14"/>
       <c r="C160" s="4" t="s">
         <v>366</v>
       </c>
@@ -7602,7 +8515,7 @@
     </row>
     <row r="184" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A184" s="15"/>
-      <c r="B184" s="13" t="s">
+      <c r="B184" s="14" t="s">
         <v>427</v>
       </c>
       <c r="C184" s="4" t="s">
@@ -7614,7 +8527,7 @@
     </row>
     <row r="185" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A185" s="15"/>
-      <c r="B185" s="13"/>
+      <c r="B185" s="14"/>
       <c r="C185" s="4" t="s">
         <v>430</v>
       </c>
@@ -7623,7 +8536,7 @@
       </c>
     </row>
     <row r="186" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A186" s="21" t="s">
+      <c r="A186" s="15" t="s">
         <v>432</v>
       </c>
       <c r="B186" s="10" t="s">
@@ -7636,8 +8549,8 @@
         <v>435</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A187" s="20"/>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A187" s="15"/>
       <c r="B187" s="12" t="s">
         <v>436</v>
       </c>
@@ -7649,7 +8562,7 @@
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A188" s="20"/>
+      <c r="A188" s="15"/>
       <c r="B188" s="12"/>
       <c r="C188" s="4" t="s">
         <v>439</v>
@@ -7659,7 +8572,7 @@
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A189" s="20"/>
+      <c r="A189" s="15"/>
       <c r="B189" s="12"/>
       <c r="C189" s="4" t="s">
         <v>441</v>
@@ -7669,7 +8582,7 @@
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A190" s="20"/>
+      <c r="A190" s="15"/>
       <c r="B190" s="12"/>
       <c r="C190" s="4" t="s">
         <v>442</v>
@@ -7679,7 +8592,7 @@
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A191" s="20"/>
+      <c r="A191" s="15"/>
       <c r="B191" s="12"/>
       <c r="C191" s="4" t="s">
         <v>443</v>
@@ -7688,19 +8601,369 @@
         <v>446</v>
       </c>
     </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A192" s="15"/>
+      <c r="B192" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="D192" s="4" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A193" s="15"/>
+      <c r="B193" s="12"/>
+      <c r="C193" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="D193" s="4" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A194" s="15"/>
+      <c r="B194" s="12"/>
+      <c r="C194" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="D194" s="4" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A195" s="15"/>
+      <c r="B195" s="12"/>
+      <c r="C195" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="D195" s="5" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A196" s="15"/>
+      <c r="B196" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="D196" s="4" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A197" s="15"/>
+      <c r="B197" s="13"/>
+      <c r="C197" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="D197" s="4" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A198" s="15"/>
+      <c r="B198" s="13"/>
+      <c r="C198" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="D198" s="4" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A199" s="15"/>
+      <c r="B199" s="13" t="s">
+        <v>463</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="D199" s="4" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A200" s="15"/>
+      <c r="B200" s="13"/>
+      <c r="C200" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="D200" s="4" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A201" s="15"/>
+      <c r="B201" s="13"/>
+      <c r="C201" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="D201" s="4" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A202" s="15"/>
+      <c r="B202" s="13"/>
+      <c r="C202" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="D202" s="5" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A203" s="15"/>
+      <c r="B203" s="13"/>
+      <c r="C203" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="D203" s="5" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A204" s="15"/>
+      <c r="B204" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="C204" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="D204" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A205" s="15"/>
+      <c r="B205" s="13"/>
+      <c r="C205" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="D205" s="4" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A206" s="15"/>
+      <c r="B206" s="13"/>
+      <c r="C206" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="D206" s="4" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A207" s="15"/>
+      <c r="B207" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="C207" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="D207" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A208" s="15"/>
+      <c r="B208" s="13"/>
+      <c r="C208" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="D208" s="4" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A209" s="15"/>
+      <c r="B209" s="13"/>
+      <c r="C209" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="D209" s="4" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A210" s="15"/>
+      <c r="B210" s="13"/>
+      <c r="C210" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="D210" s="4" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A211" s="15"/>
+      <c r="B211" s="13"/>
+      <c r="C211" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="D211" s="4" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A212" s="15"/>
+      <c r="B212" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="C212" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="D212" s="4" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A213" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="B213" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="D213" s="4" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A214" s="15"/>
+      <c r="B214" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="C214" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="D214" s="4" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A215" s="15"/>
+      <c r="B215" s="12" t="s">
+        <v>501</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="D215" s="5" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A216" s="15"/>
+      <c r="B216" s="12"/>
+      <c r="C216" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="D216" s="5" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A217" s="15"/>
+      <c r="B217" s="12"/>
+      <c r="C217" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="D217" s="5" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A218" s="15"/>
+      <c r="B218" s="12"/>
+      <c r="C218" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="D218" s="4" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A219" s="15"/>
+      <c r="B219" s="12"/>
+      <c r="C219" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="D219" s="4" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A220" s="15"/>
+      <c r="B220" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="C220" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="D220" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A221" s="20" t="s">
+        <v>515</v>
+      </c>
+      <c r="B221" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="C221" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="D221" s="5" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B222" s="12"/>
+      <c r="C222" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="D222" s="4" t="s">
+        <v>520</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="50">
+  <mergeCells count="58">
+    <mergeCell ref="B215:B219"/>
+    <mergeCell ref="A213:A220"/>
+    <mergeCell ref="B221:B222"/>
     <mergeCell ref="B180:B183"/>
     <mergeCell ref="B184:B185"/>
     <mergeCell ref="A172:A185"/>
-    <mergeCell ref="A186:A191"/>
     <mergeCell ref="B187:B191"/>
+    <mergeCell ref="B174:B176"/>
+    <mergeCell ref="B177:B178"/>
+    <mergeCell ref="A186:A212"/>
     <mergeCell ref="B116:B119"/>
     <mergeCell ref="B120:B126"/>
     <mergeCell ref="B128:B132"/>
     <mergeCell ref="A112:A132"/>
     <mergeCell ref="B133:B134"/>
     <mergeCell ref="A133:A171"/>
+    <mergeCell ref="B135:B137"/>
+    <mergeCell ref="B138:B141"/>
+    <mergeCell ref="B142:B145"/>
+    <mergeCell ref="B146:B147"/>
+    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="B151:B157"/>
+    <mergeCell ref="B158:B160"/>
+    <mergeCell ref="B161:B164"/>
+    <mergeCell ref="B165:B168"/>
+    <mergeCell ref="B169:B170"/>
     <mergeCell ref="A88:A111"/>
     <mergeCell ref="B112:B115"/>
     <mergeCell ref="B89:B93"/>
@@ -7728,21 +8991,14 @@
     <mergeCell ref="B42:B43"/>
     <mergeCell ref="B44:B47"/>
     <mergeCell ref="B48:B55"/>
-    <mergeCell ref="B135:B137"/>
-    <mergeCell ref="B138:B141"/>
-    <mergeCell ref="B142:B145"/>
-    <mergeCell ref="B146:B147"/>
-    <mergeCell ref="B149:B150"/>
-    <mergeCell ref="B174:B176"/>
-    <mergeCell ref="B177:B178"/>
-    <mergeCell ref="B151:B157"/>
-    <mergeCell ref="B158:B160"/>
-    <mergeCell ref="B161:B164"/>
-    <mergeCell ref="B165:B168"/>
-    <mergeCell ref="B169:B170"/>
+    <mergeCell ref="B192:B195"/>
+    <mergeCell ref="B196:B198"/>
+    <mergeCell ref="B199:B203"/>
+    <mergeCell ref="B204:B206"/>
+    <mergeCell ref="B207:B211"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="55" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="53" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/02_working/09_FE/FE_study.xlsx
+++ b/02_working/09_FE/FE_study.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\梶原裕希\Documents\GitHub\citizen_task\02_working\09_FE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\survey-2\Documents\GitHub\citizen_task\02_working\09_FE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98744E1-4C57-48E9-9FE0-1717989D931D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E182CE-0710-4A38-85DB-BCB905AC8AC0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11295" xr2:uid="{F62E7494-60D8-4C1F-8FB8-918B8ADB4093}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="550">
   <si>
     <t>基本情報技術者教室「くれば」まとめ</t>
     <rPh sb="0" eb="2">
@@ -6047,6 +6047,353 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>キジュン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10ー2
+企業会計</t>
+    <rPh sb="5" eb="7">
+      <t>キギョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>損益分岐点</t>
+    <rPh sb="0" eb="2">
+      <t>ソンエキ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ブンキテン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>固定費÷(1ー変動比率)</t>
+    <rPh sb="0" eb="3">
+      <t>コテイヒ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンドウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒリツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>先入先出法</t>
+    <rPh sb="0" eb="2">
+      <t>サキイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サキダ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>移動平均法</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘイキン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>先に仕入れた商品から先に売れたものとみなす</t>
+    <rPh sb="0" eb="1">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>購入した都度単価を算出</t>
+    <rPh sb="0" eb="2">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ツド</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>タンカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>貸借対照法</t>
+    <rPh sb="0" eb="2">
+      <t>タイシャク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>損益計算書</t>
+    <rPh sb="0" eb="2">
+      <t>ソンエキ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ケイサンショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ある時点の資産・負債・純資産</t>
+    <rPh sb="2" eb="4">
+      <t>ジテン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シサン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>フサイ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ジュンシサン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ある期間の収益と費用</t>
+    <rPh sb="2" eb="4">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュウエキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10ー3
+経営戦略と技術戦略</t>
+    <rPh sb="5" eb="7">
+      <t>ケイエイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センリャク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ギジュツ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>センリャク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10ー4
+ビジネスインダストリ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>EC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>電子商取引</t>
+    <rPh sb="0" eb="2">
+      <t>デンシ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ショウトリヒキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10ー5
+QC七つ道具</t>
+    <rPh sb="7" eb="8">
+      <t>ナナ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ドウグ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>特性要因図</t>
+    <rPh sb="0" eb="2">
+      <t>トクセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨウイン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>特性(結果)と要因(原因)の関連をみる</t>
+    <rPh sb="0" eb="2">
+      <t>トクセイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヨウイン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ゲンイン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カンレン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>散布図</t>
+    <rPh sb="0" eb="2">
+      <t>サンプ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2項目間の相関関係をみる</t>
+    <rPh sb="1" eb="3">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ソウカン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パレート図</t>
+    <rPh sb="4" eb="5">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>降順の棒グラフと累積の折れ線グラフで重点項目をみる</t>
+    <rPh sb="0" eb="2">
+      <t>コウジュン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ボウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ルイセキ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>セン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジュウテン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ヒストグラム</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>区間と出現度数でデータの分布やばらつきをみる</t>
+    <rPh sb="0" eb="2">
+      <t>クカン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュツゲン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ドスウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ブンプ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>管理図</t>
+    <rPh sb="0" eb="2">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>折れ線グラフの変動で異常をみる</t>
+    <rPh sb="0" eb="1">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>セン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンドウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10ー6
+オペレーションズリサーチ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10ー7
+確率</t>
+    <rPh sb="5" eb="7">
+      <t>カクリツ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -6150,7 +6497,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6190,13 +6537,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="56" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6210,9 +6557,6 @@
     </xf>
     <xf numFmtId="56" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6531,11 +6875,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D222"/>
+  <dimension ref="A1:D236"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A215" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B223" sqref="B223"/>
+      <pane ySplit="2" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G172" sqref="G172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6574,7 +6918,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="16" t="s">
@@ -6588,7 +6932,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="15"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="17"/>
       <c r="C4" s="4" t="s">
         <v>7</v>
@@ -6598,7 +6942,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="15"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="17"/>
       <c r="C5" s="4" t="s">
         <v>8</v>
@@ -6608,7 +6952,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="15"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="17"/>
       <c r="C6" s="4" t="s">
         <v>10</v>
@@ -6618,7 +6962,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="15"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="17"/>
       <c r="C7" s="4" t="s">
         <v>11</v>
@@ -6628,7 +6972,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A8" s="15"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="18" t="s">
         <v>26</v>
       </c>
@@ -6640,7 +6984,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="15"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="19"/>
       <c r="C9" s="4" t="s">
         <v>17</v>
@@ -6650,7 +6994,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A10" s="15"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="19"/>
       <c r="C10" s="4" t="s">
         <v>19</v>
@@ -6660,7 +7004,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="15"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="19"/>
       <c r="C11" s="4" t="s">
         <v>21</v>
@@ -6670,7 +7014,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" s="15"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="19"/>
       <c r="C12" s="4" t="s">
         <v>23</v>
@@ -6680,7 +7024,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="15"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="16" t="s">
         <v>28</v>
       </c>
@@ -6692,7 +7036,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="15"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="16"/>
       <c r="C14" s="4" t="s">
         <v>31</v>
@@ -6702,7 +7046,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A15" s="15"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="9" t="s">
         <v>33</v>
       </c>
@@ -6714,8 +7058,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16" s="15"/>
-      <c r="B16" s="13" t="s">
+      <c r="A16" s="13"/>
+      <c r="B16" s="15" t="s">
         <v>36</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -6726,8 +7070,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" s="15"/>
-      <c r="B17" s="13"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="15"/>
       <c r="C17" s="4" t="s">
         <v>39</v>
       </c>
@@ -6736,8 +7080,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A18" s="15"/>
-      <c r="B18" s="13"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="15"/>
       <c r="C18" s="4" t="s">
         <v>40</v>
       </c>
@@ -6746,8 +7090,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A19" s="15"/>
-      <c r="B19" s="13"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="15"/>
       <c r="C19" s="4" t="s">
         <v>43</v>
       </c>
@@ -6756,8 +7100,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A20" s="15"/>
-      <c r="B20" s="13"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="15"/>
       <c r="C20" s="4" t="s">
         <v>45</v>
       </c>
@@ -6766,8 +7110,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A21" s="15"/>
-      <c r="B21" s="13" t="s">
+      <c r="A21" s="13"/>
+      <c r="B21" s="15" t="s">
         <v>47</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -6778,8 +7122,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A22" s="15"/>
-      <c r="B22" s="13"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="15"/>
       <c r="C22" s="4" t="s">
         <v>50</v>
       </c>
@@ -6788,8 +7132,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A23" s="15"/>
-      <c r="B23" s="13"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="15"/>
       <c r="C23" s="4" t="s">
         <v>51</v>
       </c>
@@ -6798,8 +7142,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A24" s="15"/>
-      <c r="B24" s="13"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="15"/>
       <c r="C24" s="4" t="s">
         <v>54</v>
       </c>
@@ -6808,7 +7152,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A25" s="15"/>
+      <c r="A25" s="13"/>
       <c r="B25" s="6" t="s">
         <v>56</v>
       </c>
@@ -6820,7 +7164,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A26" s="15"/>
+      <c r="A26" s="13"/>
       <c r="B26" s="7" t="s">
         <v>58</v>
       </c>
@@ -6832,7 +7176,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A27" s="15"/>
+      <c r="A27" s="13"/>
       <c r="B27" s="12" t="s">
         <v>59</v>
       </c>
@@ -6844,7 +7188,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A28" s="15"/>
+      <c r="A28" s="13"/>
       <c r="B28" s="12"/>
       <c r="C28" s="4" t="s">
         <v>63</v>
@@ -6854,7 +7198,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A29" s="15"/>
+      <c r="A29" s="13"/>
       <c r="B29" s="12"/>
       <c r="C29" s="4" t="s">
         <v>64</v>
@@ -6864,7 +7208,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A30" s="15"/>
+      <c r="A30" s="13"/>
       <c r="B30" s="12"/>
       <c r="C30" s="4" t="s">
         <v>66</v>
@@ -6874,7 +7218,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A31" s="15"/>
+      <c r="A31" s="13"/>
       <c r="B31" s="12"/>
       <c r="C31" s="4" t="s">
         <v>68</v>
@@ -6884,7 +7228,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A32" s="15"/>
+      <c r="A32" s="13"/>
       <c r="B32" s="12"/>
       <c r="C32" s="4" t="s">
         <v>69</v>
@@ -6894,7 +7238,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A33" s="15"/>
+      <c r="A33" s="13"/>
       <c r="B33" s="12"/>
       <c r="C33" s="4" t="s">
         <v>72</v>
@@ -6904,7 +7248,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A34" s="15"/>
+      <c r="A34" s="13"/>
       <c r="B34" s="12"/>
       <c r="C34" s="4" t="s">
         <v>74</v>
@@ -6914,7 +7258,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A35" s="15"/>
+      <c r="A35" s="13"/>
       <c r="B35" s="14" t="s">
         <v>76</v>
       </c>
@@ -6926,7 +7270,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A36" s="15"/>
+      <c r="A36" s="13"/>
       <c r="B36" s="14"/>
       <c r="C36" s="4" t="s">
         <v>79</v>
@@ -6936,7 +7280,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="13" t="s">
         <v>82</v>
       </c>
       <c r="B37" s="6" t="s">
@@ -6950,7 +7294,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A38" s="15"/>
+      <c r="A38" s="13"/>
       <c r="B38" s="6" t="s">
         <v>83</v>
       </c>
@@ -6962,7 +7306,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A39" s="15"/>
+      <c r="A39" s="13"/>
       <c r="B39" s="6" t="s">
         <v>86</v>
       </c>
@@ -6974,7 +7318,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A40" s="15"/>
+      <c r="A40" s="13"/>
       <c r="B40" s="12" t="s">
         <v>89</v>
       </c>
@@ -6986,7 +7330,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A41" s="15"/>
+      <c r="A41" s="13"/>
       <c r="B41" s="12"/>
       <c r="C41" s="4" t="s">
         <v>92</v>
@@ -6996,7 +7340,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A42" s="15"/>
+      <c r="A42" s="13"/>
       <c r="B42" s="12" t="s">
         <v>94</v>
       </c>
@@ -7008,7 +7352,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A43" s="15"/>
+      <c r="A43" s="13"/>
       <c r="B43" s="12"/>
       <c r="C43" s="4" t="s">
         <v>97</v>
@@ -7018,8 +7362,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A44" s="15"/>
-      <c r="B44" s="13" t="s">
+      <c r="A44" s="13"/>
+      <c r="B44" s="15" t="s">
         <v>99</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -7030,8 +7374,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A45" s="15"/>
-      <c r="B45" s="13"/>
+      <c r="A45" s="13"/>
+      <c r="B45" s="15"/>
       <c r="C45" s="4" t="s">
         <v>102</v>
       </c>
@@ -7040,8 +7384,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A46" s="15"/>
-      <c r="B46" s="13"/>
+      <c r="A46" s="13"/>
+      <c r="B46" s="15"/>
       <c r="C46" s="4" t="s">
         <v>104</v>
       </c>
@@ -7050,8 +7394,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A47" s="15"/>
-      <c r="B47" s="13"/>
+      <c r="A47" s="13"/>
+      <c r="B47" s="15"/>
       <c r="C47" s="4" t="s">
         <v>106</v>
       </c>
@@ -7060,8 +7404,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A48" s="15"/>
-      <c r="B48" s="13" t="s">
+      <c r="A48" s="13"/>
+      <c r="B48" s="15" t="s">
         <v>108</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -7072,8 +7416,8 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A49" s="15"/>
-      <c r="B49" s="13"/>
+      <c r="A49" s="13"/>
+      <c r="B49" s="15"/>
       <c r="C49" s="4" t="s">
         <v>111</v>
       </c>
@@ -7082,8 +7426,8 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A50" s="15"/>
-      <c r="B50" s="13"/>
+      <c r="A50" s="13"/>
+      <c r="B50" s="15"/>
       <c r="C50" s="4" t="s">
         <v>113</v>
       </c>
@@ -7092,8 +7436,8 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A51" s="15"/>
-      <c r="B51" s="13"/>
+      <c r="A51" s="13"/>
+      <c r="B51" s="15"/>
       <c r="C51" s="4" t="s">
         <v>115</v>
       </c>
@@ -7102,8 +7446,8 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A52" s="15"/>
-      <c r="B52" s="13"/>
+      <c r="A52" s="13"/>
+      <c r="B52" s="15"/>
       <c r="C52" s="4" t="s">
         <v>117</v>
       </c>
@@ -7112,8 +7456,8 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A53" s="15"/>
-      <c r="B53" s="13"/>
+      <c r="A53" s="13"/>
+      <c r="B53" s="15"/>
       <c r="C53" s="4" t="s">
         <v>119</v>
       </c>
@@ -7122,8 +7466,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A54" s="15"/>
-      <c r="B54" s="13"/>
+      <c r="A54" s="13"/>
+      <c r="B54" s="15"/>
       <c r="C54" s="4" t="s">
         <v>121</v>
       </c>
@@ -7132,8 +7476,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A55" s="15"/>
-      <c r="B55" s="13"/>
+      <c r="A55" s="13"/>
+      <c r="B55" s="15"/>
       <c r="C55" s="4" t="s">
         <v>122</v>
       </c>
@@ -7142,7 +7486,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A56" s="15" t="s">
+      <c r="A56" s="13" t="s">
         <v>125</v>
       </c>
       <c r="B56" s="10" t="s">
@@ -7156,7 +7500,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A57" s="15"/>
+      <c r="A57" s="13"/>
       <c r="B57" s="10" t="s">
         <v>129</v>
       </c>
@@ -7168,7 +7512,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A58" s="15"/>
+      <c r="A58" s="13"/>
       <c r="B58" s="14" t="s">
         <v>131</v>
       </c>
@@ -7180,7 +7524,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A59" s="15"/>
+      <c r="A59" s="13"/>
       <c r="B59" s="14"/>
       <c r="C59" s="4" t="s">
         <v>134</v>
@@ -7190,7 +7534,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A60" s="15"/>
+      <c r="A60" s="13"/>
       <c r="B60" s="14"/>
       <c r="C60" s="4" t="s">
         <v>136</v>
@@ -7200,7 +7544,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A61" s="15"/>
+      <c r="A61" s="13"/>
       <c r="B61" s="14"/>
       <c r="C61" s="4" t="s">
         <v>138</v>
@@ -7210,7 +7554,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A62" s="15"/>
+      <c r="A62" s="13"/>
       <c r="B62" s="14"/>
       <c r="C62" s="4" t="s">
         <v>140</v>
@@ -7220,7 +7564,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A63" s="15"/>
+      <c r="A63" s="13"/>
       <c r="B63" s="14"/>
       <c r="C63" s="4" t="s">
         <v>142</v>
@@ -7230,7 +7574,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A64" s="15"/>
+      <c r="A64" s="13"/>
       <c r="B64" s="14"/>
       <c r="C64" s="4" t="s">
         <v>144</v>
@@ -7240,7 +7584,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A65" s="15"/>
+      <c r="A65" s="13"/>
       <c r="B65" s="10" t="s">
         <v>146</v>
       </c>
@@ -7252,8 +7596,8 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A66" s="15"/>
-      <c r="B66" s="13" t="s">
+      <c r="A66" s="13"/>
+      <c r="B66" s="15" t="s">
         <v>150</v>
       </c>
       <c r="C66" s="4" t="s">
@@ -7264,8 +7608,8 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A67" s="15"/>
-      <c r="B67" s="13"/>
+      <c r="A67" s="13"/>
+      <c r="B67" s="15"/>
       <c r="C67" s="4" t="s">
         <v>154</v>
       </c>
@@ -7274,8 +7618,8 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A68" s="15"/>
-      <c r="B68" s="13"/>
+      <c r="A68" s="13"/>
+      <c r="B68" s="15"/>
       <c r="C68" s="4" t="s">
         <v>155</v>
       </c>
@@ -7284,8 +7628,8 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A69" s="15"/>
-      <c r="B69" s="13"/>
+      <c r="A69" s="13"/>
+      <c r="B69" s="15"/>
       <c r="C69" s="4" t="s">
         <v>156</v>
       </c>
@@ -7294,8 +7638,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A70" s="15"/>
-      <c r="B70" s="13"/>
+      <c r="A70" s="13"/>
+      <c r="B70" s="15"/>
       <c r="C70" s="4" t="s">
         <v>160</v>
       </c>
@@ -7304,8 +7648,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A71" s="15"/>
-      <c r="B71" s="13"/>
+      <c r="A71" s="13"/>
+      <c r="B71" s="15"/>
       <c r="C71" s="4" t="s">
         <v>162</v>
       </c>
@@ -7314,8 +7658,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A72" s="15"/>
-      <c r="B72" s="13"/>
+      <c r="A72" s="13"/>
+      <c r="B72" s="15"/>
       <c r="C72" s="4" t="s">
         <v>164</v>
       </c>
@@ -7324,8 +7668,8 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A73" s="15"/>
-      <c r="B73" s="13"/>
+      <c r="A73" s="13"/>
+      <c r="B73" s="15"/>
       <c r="C73" s="4" t="s">
         <v>166</v>
       </c>
@@ -7334,8 +7678,8 @@
       </c>
     </row>
     <row r="74" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A74" s="15"/>
-      <c r="B74" s="13"/>
+      <c r="A74" s="13"/>
+      <c r="B74" s="15"/>
       <c r="C74" s="4" t="s">
         <v>168</v>
       </c>
@@ -7344,8 +7688,8 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A75" s="15"/>
-      <c r="B75" s="13" t="s">
+      <c r="A75" s="13"/>
+      <c r="B75" s="15" t="s">
         <v>174</v>
       </c>
       <c r="C75" s="4" t="s">
@@ -7356,8 +7700,8 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A76" s="15"/>
-      <c r="B76" s="13"/>
+      <c r="A76" s="13"/>
+      <c r="B76" s="15"/>
       <c r="C76" s="4" t="s">
         <v>172</v>
       </c>
@@ -7366,7 +7710,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A77" s="15"/>
+      <c r="A77" s="13"/>
       <c r="B77" s="14" t="s">
         <v>175</v>
       </c>
@@ -7378,7 +7722,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A78" s="15"/>
+      <c r="A78" s="13"/>
       <c r="B78" s="14"/>
       <c r="C78" s="4" t="s">
         <v>178</v>
@@ -7388,7 +7732,7 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A79" s="15"/>
+      <c r="A79" s="13"/>
       <c r="B79" s="14"/>
       <c r="C79" s="4" t="s">
         <v>179</v>
@@ -7398,7 +7742,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A80" s="15"/>
+      <c r="A80" s="13"/>
       <c r="B80" s="14"/>
       <c r="C80" s="4" t="s">
         <v>180</v>
@@ -7408,7 +7752,7 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A81" s="15"/>
+      <c r="A81" s="13"/>
       <c r="B81" s="14"/>
       <c r="C81" s="4" t="s">
         <v>184</v>
@@ -7418,7 +7762,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A82" s="15"/>
+      <c r="A82" s="13"/>
       <c r="B82" s="14"/>
       <c r="C82" s="4" t="s">
         <v>187</v>
@@ -7428,7 +7772,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A83" s="15"/>
+      <c r="A83" s="13"/>
       <c r="B83" s="10" t="s">
         <v>188</v>
       </c>
@@ -7440,7 +7784,7 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A84" s="15"/>
+      <c r="A84" s="13"/>
       <c r="B84" s="14" t="s">
         <v>190</v>
       </c>
@@ -7452,7 +7796,7 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A85" s="15"/>
+      <c r="A85" s="13"/>
       <c r="B85" s="14"/>
       <c r="C85" s="4" t="s">
         <v>193</v>
@@ -7462,7 +7806,7 @@
       </c>
     </row>
     <row r="86" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A86" s="15"/>
+      <c r="A86" s="13"/>
       <c r="B86" s="14" t="s">
         <v>195</v>
       </c>
@@ -7474,7 +7818,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A87" s="15"/>
+      <c r="A87" s="13"/>
       <c r="B87" s="14"/>
       <c r="C87" s="4" t="s">
         <v>198</v>
@@ -7484,7 +7828,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A88" s="15" t="s">
+      <c r="A88" s="13" t="s">
         <v>200</v>
       </c>
       <c r="B88" s="10" t="s">
@@ -7498,8 +7842,8 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A89" s="15"/>
-      <c r="B89" s="13" t="s">
+      <c r="A89" s="13"/>
+      <c r="B89" s="15" t="s">
         <v>204</v>
       </c>
       <c r="C89" s="4" t="s">
@@ -7510,8 +7854,8 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A90" s="15"/>
-      <c r="B90" s="13"/>
+      <c r="A90" s="13"/>
+      <c r="B90" s="15"/>
       <c r="C90" s="4" t="s">
         <v>207</v>
       </c>
@@ -7520,8 +7864,8 @@
       </c>
     </row>
     <row r="91" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A91" s="15"/>
-      <c r="B91" s="13"/>
+      <c r="A91" s="13"/>
+      <c r="B91" s="15"/>
       <c r="C91" s="4" t="s">
         <v>209</v>
       </c>
@@ -7530,8 +7874,8 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A92" s="15"/>
-      <c r="B92" s="13"/>
+      <c r="A92" s="13"/>
+      <c r="B92" s="15"/>
       <c r="C92" s="4" t="s">
         <v>211</v>
       </c>
@@ -7540,8 +7884,8 @@
       </c>
     </row>
     <row r="93" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A93" s="15"/>
-      <c r="B93" s="13"/>
+      <c r="A93" s="13"/>
+      <c r="B93" s="15"/>
       <c r="C93" s="4" t="s">
         <v>213</v>
       </c>
@@ -7550,8 +7894,8 @@
       </c>
     </row>
     <row r="94" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A94" s="15"/>
-      <c r="B94" s="13" t="s">
+      <c r="A94" s="13"/>
+      <c r="B94" s="15" t="s">
         <v>215</v>
       </c>
       <c r="C94" s="4" t="s">
@@ -7562,8 +7906,8 @@
       </c>
     </row>
     <row r="95" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A95" s="15"/>
-      <c r="B95" s="13"/>
+      <c r="A95" s="13"/>
+      <c r="B95" s="15"/>
       <c r="C95" s="4" t="s">
         <v>218</v>
       </c>
@@ -7572,7 +7916,7 @@
       </c>
     </row>
     <row r="96" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A96" s="15"/>
+      <c r="A96" s="13"/>
       <c r="B96" s="11" t="s">
         <v>220</v>
       </c>
@@ -7584,8 +7928,8 @@
       </c>
     </row>
     <row r="97" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A97" s="15"/>
-      <c r="B97" s="13" t="s">
+      <c r="A97" s="13"/>
+      <c r="B97" s="15" t="s">
         <v>223</v>
       </c>
       <c r="C97" s="4" t="s">
@@ -7596,8 +7940,8 @@
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A98" s="15"/>
-      <c r="B98" s="13"/>
+      <c r="A98" s="13"/>
+      <c r="B98" s="15"/>
       <c r="C98" s="4" t="s">
         <v>226</v>
       </c>
@@ -7606,8 +7950,8 @@
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A99" s="15"/>
-      <c r="B99" s="13"/>
+      <c r="A99" s="13"/>
+      <c r="B99" s="15"/>
       <c r="C99" s="4" t="s">
         <v>228</v>
       </c>
@@ -7616,8 +7960,8 @@
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A100" s="15"/>
-      <c r="B100" s="13"/>
+      <c r="A100" s="13"/>
+      <c r="B100" s="15"/>
       <c r="C100" s="4" t="s">
         <v>230</v>
       </c>
@@ -7626,8 +7970,8 @@
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A101" s="15"/>
-      <c r="B101" s="13"/>
+      <c r="A101" s="13"/>
+      <c r="B101" s="15"/>
       <c r="C101" s="4" t="s">
         <v>232</v>
       </c>
@@ -7636,8 +7980,8 @@
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A102" s="15"/>
-      <c r="B102" s="13" t="s">
+      <c r="A102" s="13"/>
+      <c r="B102" s="15" t="s">
         <v>234</v>
       </c>
       <c r="C102" s="4" t="s">
@@ -7648,8 +7992,8 @@
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A103" s="15"/>
-      <c r="B103" s="13"/>
+      <c r="A103" s="13"/>
+      <c r="B103" s="15"/>
       <c r="C103" s="4" t="s">
         <v>237</v>
       </c>
@@ -7658,8 +8002,8 @@
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A104" s="15"/>
-      <c r="B104" s="13"/>
+      <c r="A104" s="13"/>
+      <c r="B104" s="15"/>
       <c r="C104" s="4" t="s">
         <v>238</v>
       </c>
@@ -7668,8 +8012,8 @@
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A105" s="15"/>
-      <c r="B105" s="13"/>
+      <c r="A105" s="13"/>
+      <c r="B105" s="15"/>
       <c r="C105" s="4" t="s">
         <v>241</v>
       </c>
@@ -7678,8 +8022,8 @@
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A106" s="15"/>
-      <c r="B106" s="13"/>
+      <c r="A106" s="13"/>
+      <c r="B106" s="15"/>
       <c r="C106" s="4" t="s">
         <v>243</v>
       </c>
@@ -7688,8 +8032,8 @@
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A107" s="15"/>
-      <c r="B107" s="13"/>
+      <c r="A107" s="13"/>
+      <c r="B107" s="15"/>
       <c r="C107" s="4" t="s">
         <v>245</v>
       </c>
@@ -7698,8 +8042,8 @@
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A108" s="15"/>
-      <c r="B108" s="13" t="s">
+      <c r="A108" s="13"/>
+      <c r="B108" s="15" t="s">
         <v>247</v>
       </c>
       <c r="C108" s="4" t="s">
@@ -7710,8 +8054,8 @@
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A109" s="15"/>
-      <c r="B109" s="13"/>
+      <c r="A109" s="13"/>
+      <c r="B109" s="15"/>
       <c r="C109" s="4" t="s">
         <v>250</v>
       </c>
@@ -7720,8 +8064,8 @@
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A110" s="15"/>
-      <c r="B110" s="13"/>
+      <c r="A110" s="13"/>
+      <c r="B110" s="15"/>
       <c r="C110" s="4" t="s">
         <v>252</v>
       </c>
@@ -7730,8 +8074,8 @@
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A111" s="15"/>
-      <c r="B111" s="13"/>
+      <c r="A111" s="13"/>
+      <c r="B111" s="15"/>
       <c r="C111" s="4" t="s">
         <v>254</v>
       </c>
@@ -7740,7 +8084,7 @@
       </c>
     </row>
     <row r="112" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A112" s="15" t="s">
+      <c r="A112" s="13" t="s">
         <v>256</v>
       </c>
       <c r="B112" s="14" t="s">
@@ -7754,7 +8098,7 @@
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A113" s="15"/>
+      <c r="A113" s="13"/>
       <c r="B113" s="14"/>
       <c r="C113" s="4" t="s">
         <v>260</v>
@@ -7764,7 +8108,7 @@
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A114" s="15"/>
+      <c r="A114" s="13"/>
       <c r="B114" s="14"/>
       <c r="C114" s="4" t="s">
         <v>262</v>
@@ -7774,7 +8118,7 @@
       </c>
     </row>
     <row r="115" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A115" s="15"/>
+      <c r="A115" s="13"/>
       <c r="B115" s="14"/>
       <c r="C115" s="4" t="s">
         <v>264</v>
@@ -7784,8 +8128,8 @@
       </c>
     </row>
     <row r="116" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A116" s="15"/>
-      <c r="B116" s="13" t="s">
+      <c r="A116" s="13"/>
+      <c r="B116" s="15" t="s">
         <v>266</v>
       </c>
       <c r="C116" s="4" t="s">
@@ -7796,8 +8140,8 @@
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A117" s="15"/>
-      <c r="B117" s="13"/>
+      <c r="A117" s="13"/>
+      <c r="B117" s="15"/>
       <c r="C117" s="4" t="s">
         <v>269</v>
       </c>
@@ -7806,8 +8150,8 @@
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A118" s="15"/>
-      <c r="B118" s="13"/>
+      <c r="A118" s="13"/>
+      <c r="B118" s="15"/>
       <c r="C118" s="4" t="s">
         <v>271</v>
       </c>
@@ -7816,8 +8160,8 @@
       </c>
     </row>
     <row r="119" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A119" s="15"/>
-      <c r="B119" s="13"/>
+      <c r="A119" s="13"/>
+      <c r="B119" s="15"/>
       <c r="C119" s="4" t="s">
         <v>273</v>
       </c>
@@ -7826,7 +8170,7 @@
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A120" s="15"/>
+      <c r="A120" s="13"/>
       <c r="B120" s="12" t="s">
         <v>275</v>
       </c>
@@ -7838,7 +8182,7 @@
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A121" s="15"/>
+      <c r="A121" s="13"/>
       <c r="B121" s="12"/>
       <c r="C121" s="4" t="s">
         <v>278</v>
@@ -7848,7 +8192,7 @@
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A122" s="15"/>
+      <c r="A122" s="13"/>
       <c r="B122" s="12"/>
       <c r="C122" s="4" t="s">
         <v>279</v>
@@ -7858,7 +8202,7 @@
       </c>
     </row>
     <row r="123" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A123" s="15"/>
+      <c r="A123" s="13"/>
       <c r="B123" s="12"/>
       <c r="C123" s="4" t="s">
         <v>280</v>
@@ -7868,7 +8212,7 @@
       </c>
     </row>
     <row r="124" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A124" s="15"/>
+      <c r="A124" s="13"/>
       <c r="B124" s="12"/>
       <c r="C124" s="4" t="s">
         <v>281</v>
@@ -7878,7 +8222,7 @@
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A125" s="15"/>
+      <c r="A125" s="13"/>
       <c r="B125" s="12"/>
       <c r="C125" s="4" t="s">
         <v>286</v>
@@ -7888,7 +8232,7 @@
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A126" s="15"/>
+      <c r="A126" s="13"/>
       <c r="B126" s="12"/>
       <c r="C126" s="4" t="s">
         <v>288</v>
@@ -7898,7 +8242,7 @@
       </c>
     </row>
     <row r="127" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A127" s="15"/>
+      <c r="A127" s="13"/>
       <c r="B127" s="6" t="s">
         <v>290</v>
       </c>
@@ -7910,7 +8254,7 @@
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A128" s="15"/>
+      <c r="A128" s="13"/>
       <c r="B128" s="12" t="s">
         <v>293</v>
       </c>
@@ -7922,7 +8266,7 @@
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A129" s="15"/>
+      <c r="A129" s="13"/>
       <c r="B129" s="12"/>
       <c r="C129" s="4" t="s">
         <v>296</v>
@@ -7932,7 +8276,7 @@
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A130" s="15"/>
+      <c r="A130" s="13"/>
       <c r="B130" s="12"/>
       <c r="C130" s="4" t="s">
         <v>298</v>
@@ -7942,7 +8286,7 @@
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A131" s="15"/>
+      <c r="A131" s="13"/>
       <c r="B131" s="12"/>
       <c r="C131" s="4" t="s">
         <v>300</v>
@@ -7952,7 +8296,7 @@
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A132" s="15"/>
+      <c r="A132" s="13"/>
       <c r="B132" s="12"/>
       <c r="C132" s="4" t="s">
         <v>301</v>
@@ -7962,7 +8306,7 @@
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A133" s="15" t="s">
+      <c r="A133" s="13" t="s">
         <v>304</v>
       </c>
       <c r="B133" s="12" t="s">
@@ -7976,7 +8320,7 @@
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A134" s="15"/>
+      <c r="A134" s="13"/>
       <c r="B134" s="12"/>
       <c r="C134" s="4" t="s">
         <v>308</v>
@@ -7986,7 +8330,7 @@
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A135" s="15"/>
+      <c r="A135" s="13"/>
       <c r="B135" s="12" t="s">
         <v>310</v>
       </c>
@@ -7998,7 +8342,7 @@
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A136" s="15"/>
+      <c r="A136" s="13"/>
       <c r="B136" s="12"/>
       <c r="C136" s="4" t="s">
         <v>313</v>
@@ -8008,7 +8352,7 @@
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A137" s="15"/>
+      <c r="A137" s="13"/>
       <c r="B137" s="12"/>
       <c r="C137" s="4" t="s">
         <v>315</v>
@@ -8018,8 +8362,8 @@
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A138" s="15"/>
-      <c r="B138" s="13" t="s">
+      <c r="A138" s="13"/>
+      <c r="B138" s="15" t="s">
         <v>317</v>
       </c>
       <c r="C138" s="4" t="s">
@@ -8030,8 +8374,8 @@
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A139" s="15"/>
-      <c r="B139" s="13"/>
+      <c r="A139" s="13"/>
+      <c r="B139" s="15"/>
       <c r="C139" s="4" t="s">
         <v>320</v>
       </c>
@@ -8040,8 +8384,8 @@
       </c>
     </row>
     <row r="140" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A140" s="15"/>
-      <c r="B140" s="13"/>
+      <c r="A140" s="13"/>
+      <c r="B140" s="15"/>
       <c r="C140" s="4" t="s">
         <v>322</v>
       </c>
@@ -8050,8 +8394,8 @@
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A141" s="15"/>
-      <c r="B141" s="13"/>
+      <c r="A141" s="13"/>
+      <c r="B141" s="15"/>
       <c r="C141" s="4" t="s">
         <v>324</v>
       </c>
@@ -8060,8 +8404,8 @@
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A142" s="15"/>
-      <c r="B142" s="13" t="s">
+      <c r="A142" s="13"/>
+      <c r="B142" s="15" t="s">
         <v>326</v>
       </c>
       <c r="C142" s="4" t="s">
@@ -8072,8 +8416,8 @@
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A143" s="15"/>
-      <c r="B143" s="13"/>
+      <c r="A143" s="13"/>
+      <c r="B143" s="15"/>
       <c r="C143" s="4" t="s">
         <v>328</v>
       </c>
@@ -8082,8 +8426,8 @@
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A144" s="15"/>
-      <c r="B144" s="13"/>
+      <c r="A144" s="13"/>
+      <c r="B144" s="15"/>
       <c r="C144" s="4" t="s">
         <v>331</v>
       </c>
@@ -8092,8 +8436,8 @@
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A145" s="15"/>
-      <c r="B145" s="13"/>
+      <c r="A145" s="13"/>
+      <c r="B145" s="15"/>
       <c r="C145" s="4" t="s">
         <v>333</v>
       </c>
@@ -8102,7 +8446,7 @@
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A146" s="15"/>
+      <c r="A146" s="13"/>
       <c r="B146" s="14" t="s">
         <v>335</v>
       </c>
@@ -8114,7 +8458,7 @@
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A147" s="15"/>
+      <c r="A147" s="13"/>
       <c r="B147" s="14"/>
       <c r="C147" s="4" t="s">
         <v>338</v>
@@ -8124,7 +8468,7 @@
       </c>
     </row>
     <row r="148" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A148" s="15"/>
+      <c r="A148" s="13"/>
       <c r="B148" s="10" t="s">
         <v>340</v>
       </c>
@@ -8136,7 +8480,7 @@
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A149" s="15"/>
+      <c r="A149" s="13"/>
       <c r="B149" s="12" t="s">
         <v>343</v>
       </c>
@@ -8148,7 +8492,7 @@
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A150" s="15"/>
+      <c r="A150" s="13"/>
       <c r="B150" s="12"/>
       <c r="C150" s="4" t="s">
         <v>346</v>
@@ -8158,7 +8502,7 @@
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A151" s="15"/>
+      <c r="A151" s="13"/>
       <c r="B151" s="12" t="s">
         <v>348</v>
       </c>
@@ -8170,7 +8514,7 @@
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A152" s="15"/>
+      <c r="A152" s="13"/>
       <c r="B152" s="12"/>
       <c r="C152" s="4" t="s">
         <v>351</v>
@@ -8180,7 +8524,7 @@
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A153" s="15"/>
+      <c r="A153" s="13"/>
       <c r="B153" s="12"/>
       <c r="C153" s="4" t="s">
         <v>353</v>
@@ -8190,7 +8534,7 @@
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A154" s="15"/>
+      <c r="A154" s="13"/>
       <c r="B154" s="12"/>
       <c r="C154" s="4" t="s">
         <v>355</v>
@@ -8200,7 +8544,7 @@
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A155" s="15"/>
+      <c r="A155" s="13"/>
       <c r="B155" s="12"/>
       <c r="C155" s="4" t="s">
         <v>357</v>
@@ -8210,7 +8554,7 @@
       </c>
     </row>
     <row r="156" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A156" s="15"/>
+      <c r="A156" s="13"/>
       <c r="B156" s="12"/>
       <c r="C156" s="4" t="s">
         <v>359</v>
@@ -8220,7 +8564,7 @@
       </c>
     </row>
     <row r="157" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A157" s="15"/>
+      <c r="A157" s="13"/>
       <c r="B157" s="12"/>
       <c r="C157" s="4" t="s">
         <v>360</v>
@@ -8230,7 +8574,7 @@
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A158" s="15"/>
+      <c r="A158" s="13"/>
       <c r="B158" s="14" t="s">
         <v>363</v>
       </c>
@@ -8242,7 +8586,7 @@
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A159" s="15"/>
+      <c r="A159" s="13"/>
       <c r="B159" s="14"/>
       <c r="C159" s="4" t="s">
         <v>365</v>
@@ -8252,7 +8596,7 @@
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A160" s="15"/>
+      <c r="A160" s="13"/>
       <c r="B160" s="14"/>
       <c r="C160" s="4" t="s">
         <v>366</v>
@@ -8262,7 +8606,7 @@
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A161" s="15"/>
+      <c r="A161" s="13"/>
       <c r="B161" s="12" t="s">
         <v>370</v>
       </c>
@@ -8274,7 +8618,7 @@
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A162" s="15"/>
+      <c r="A162" s="13"/>
       <c r="B162" s="12"/>
       <c r="C162" s="4" t="s">
         <v>373</v>
@@ -8284,7 +8628,7 @@
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A163" s="15"/>
+      <c r="A163" s="13"/>
       <c r="B163" s="12"/>
       <c r="C163" s="4" t="s">
         <v>374</v>
@@ -8294,7 +8638,7 @@
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A164" s="15"/>
+      <c r="A164" s="13"/>
       <c r="B164" s="12"/>
       <c r="C164" s="4" t="s">
         <v>375</v>
@@ -8304,7 +8648,7 @@
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A165" s="15"/>
+      <c r="A165" s="13"/>
       <c r="B165" s="12" t="s">
         <v>379</v>
       </c>
@@ -8316,7 +8660,7 @@
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A166" s="15"/>
+      <c r="A166" s="13"/>
       <c r="B166" s="12"/>
       <c r="C166" s="4" t="s">
         <v>382</v>
@@ -8326,7 +8670,7 @@
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A167" s="15"/>
+      <c r="A167" s="13"/>
       <c r="B167" s="12"/>
       <c r="C167" s="4" t="s">
         <v>384</v>
@@ -8336,7 +8680,7 @@
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A168" s="15"/>
+      <c r="A168" s="13"/>
       <c r="B168" s="12"/>
       <c r="C168" s="4" t="s">
         <v>386</v>
@@ -8346,7 +8690,7 @@
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A169" s="15"/>
+      <c r="A169" s="13"/>
       <c r="B169" s="12" t="s">
         <v>388</v>
       </c>
@@ -8358,7 +8702,7 @@
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A170" s="15"/>
+      <c r="A170" s="13"/>
       <c r="B170" s="12"/>
       <c r="C170" s="4" t="s">
         <v>391</v>
@@ -8368,7 +8712,7 @@
       </c>
     </row>
     <row r="171" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A171" s="15"/>
+      <c r="A171" s="13"/>
       <c r="B171" s="7" t="s">
         <v>393</v>
       </c>
@@ -8380,7 +8724,7 @@
       </c>
     </row>
     <row r="172" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A172" s="15" t="s">
+      <c r="A172" s="13" t="s">
         <v>397</v>
       </c>
       <c r="B172" s="10" t="s">
@@ -8394,7 +8738,7 @@
       </c>
     </row>
     <row r="173" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A173" s="15"/>
+      <c r="A173" s="13"/>
       <c r="B173" s="7" t="s">
         <v>400</v>
       </c>
@@ -8406,7 +8750,7 @@
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A174" s="15"/>
+      <c r="A174" s="13"/>
       <c r="B174" s="12" t="s">
         <v>403</v>
       </c>
@@ -8418,7 +8762,7 @@
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A175" s="15"/>
+      <c r="A175" s="13"/>
       <c r="B175" s="12"/>
       <c r="C175" s="4" t="s">
         <v>406</v>
@@ -8428,7 +8772,7 @@
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A176" s="15"/>
+      <c r="A176" s="13"/>
       <c r="B176" s="12"/>
       <c r="C176" s="4" t="s">
         <v>408</v>
@@ -8438,7 +8782,7 @@
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A177" s="15"/>
+      <c r="A177" s="13"/>
       <c r="B177" s="12" t="s">
         <v>410</v>
       </c>
@@ -8450,7 +8794,7 @@
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A178" s="15"/>
+      <c r="A178" s="13"/>
       <c r="B178" s="12"/>
       <c r="C178" s="4" t="s">
         <v>413</v>
@@ -8460,7 +8804,7 @@
       </c>
     </row>
     <row r="179" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A179" s="15"/>
+      <c r="A179" s="13"/>
       <c r="B179" s="10" t="s">
         <v>415</v>
       </c>
@@ -8472,7 +8816,7 @@
       </c>
     </row>
     <row r="180" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A180" s="15"/>
+      <c r="A180" s="13"/>
       <c r="B180" s="12" t="s">
         <v>418</v>
       </c>
@@ -8484,7 +8828,7 @@
       </c>
     </row>
     <row r="181" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A181" s="15"/>
+      <c r="A181" s="13"/>
       <c r="B181" s="12"/>
       <c r="C181" s="4" t="s">
         <v>421</v>
@@ -8494,7 +8838,7 @@
       </c>
     </row>
     <row r="182" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A182" s="15"/>
+      <c r="A182" s="13"/>
       <c r="B182" s="12"/>
       <c r="C182" s="4" t="s">
         <v>425</v>
@@ -8504,7 +8848,7 @@
       </c>
     </row>
     <row r="183" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A183" s="15"/>
+      <c r="A183" s="13"/>
       <c r="B183" s="12"/>
       <c r="C183" s="4" t="s">
         <v>426</v>
@@ -8514,7 +8858,7 @@
       </c>
     </row>
     <row r="184" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A184" s="15"/>
+      <c r="A184" s="13"/>
       <c r="B184" s="14" t="s">
         <v>427</v>
       </c>
@@ -8526,7 +8870,7 @@
       </c>
     </row>
     <row r="185" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A185" s="15"/>
+      <c r="A185" s="13"/>
       <c r="B185" s="14"/>
       <c r="C185" s="4" t="s">
         <v>430</v>
@@ -8536,7 +8880,7 @@
       </c>
     </row>
     <row r="186" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A186" s="15" t="s">
+      <c r="A186" s="13" t="s">
         <v>432</v>
       </c>
       <c r="B186" s="10" t="s">
@@ -8550,7 +8894,7 @@
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A187" s="15"/>
+      <c r="A187" s="13"/>
       <c r="B187" s="12" t="s">
         <v>436</v>
       </c>
@@ -8562,7 +8906,7 @@
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A188" s="15"/>
+      <c r="A188" s="13"/>
       <c r="B188" s="12"/>
       <c r="C188" s="4" t="s">
         <v>439</v>
@@ -8572,7 +8916,7 @@
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A189" s="15"/>
+      <c r="A189" s="13"/>
       <c r="B189" s="12"/>
       <c r="C189" s="4" t="s">
         <v>441</v>
@@ -8582,7 +8926,7 @@
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A190" s="15"/>
+      <c r="A190" s="13"/>
       <c r="B190" s="12"/>
       <c r="C190" s="4" t="s">
         <v>442</v>
@@ -8592,7 +8936,7 @@
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A191" s="15"/>
+      <c r="A191" s="13"/>
       <c r="B191" s="12"/>
       <c r="C191" s="4" t="s">
         <v>443</v>
@@ -8602,7 +8946,7 @@
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A192" s="15"/>
+      <c r="A192" s="13"/>
       <c r="B192" s="12" t="s">
         <v>447</v>
       </c>
@@ -8614,7 +8958,7 @@
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A193" s="15"/>
+      <c r="A193" s="13"/>
       <c r="B193" s="12"/>
       <c r="C193" s="4" t="s">
         <v>450</v>
@@ -8624,7 +8968,7 @@
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A194" s="15"/>
+      <c r="A194" s="13"/>
       <c r="B194" s="12"/>
       <c r="C194" s="4" t="s">
         <v>452</v>
@@ -8634,7 +8978,7 @@
       </c>
     </row>
     <row r="195" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A195" s="15"/>
+      <c r="A195" s="13"/>
       <c r="B195" s="12"/>
       <c r="C195" s="4" t="s">
         <v>454</v>
@@ -8644,8 +8988,8 @@
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A196" s="15"/>
-      <c r="B196" s="13" t="s">
+      <c r="A196" s="13"/>
+      <c r="B196" s="15" t="s">
         <v>456</v>
       </c>
       <c r="C196" s="4" t="s">
@@ -8656,8 +9000,8 @@
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A197" s="15"/>
-      <c r="B197" s="13"/>
+      <c r="A197" s="13"/>
+      <c r="B197" s="15"/>
       <c r="C197" s="4" t="s">
         <v>459</v>
       </c>
@@ -8666,8 +9010,8 @@
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A198" s="15"/>
-      <c r="B198" s="13"/>
+      <c r="A198" s="13"/>
+      <c r="B198" s="15"/>
       <c r="C198" s="4" t="s">
         <v>461</v>
       </c>
@@ -8676,8 +9020,8 @@
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A199" s="15"/>
-      <c r="B199" s="13" t="s">
+      <c r="A199" s="13"/>
+      <c r="B199" s="15" t="s">
         <v>463</v>
       </c>
       <c r="C199" s="4" t="s">
@@ -8688,8 +9032,8 @@
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A200" s="15"/>
-      <c r="B200" s="13"/>
+      <c r="A200" s="13"/>
+      <c r="B200" s="15"/>
       <c r="C200" s="4" t="s">
         <v>466</v>
       </c>
@@ -8698,8 +9042,8 @@
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A201" s="15"/>
-      <c r="B201" s="13"/>
+      <c r="A201" s="13"/>
+      <c r="B201" s="15"/>
       <c r="C201" s="4" t="s">
         <v>468</v>
       </c>
@@ -8708,8 +9052,8 @@
       </c>
     </row>
     <row r="202" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A202" s="15"/>
-      <c r="B202" s="13"/>
+      <c r="A202" s="13"/>
+      <c r="B202" s="15"/>
       <c r="C202" s="4" t="s">
         <v>470</v>
       </c>
@@ -8718,8 +9062,8 @@
       </c>
     </row>
     <row r="203" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A203" s="15"/>
-      <c r="B203" s="13"/>
+      <c r="A203" s="13"/>
+      <c r="B203" s="15"/>
       <c r="C203" s="4" t="s">
         <v>471</v>
       </c>
@@ -8728,8 +9072,8 @@
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A204" s="15"/>
-      <c r="B204" s="13" t="s">
+      <c r="A204" s="13"/>
+      <c r="B204" s="15" t="s">
         <v>474</v>
       </c>
       <c r="C204" s="4" t="s">
@@ -8740,8 +9084,8 @@
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A205" s="15"/>
-      <c r="B205" s="13"/>
+      <c r="A205" s="13"/>
+      <c r="B205" s="15"/>
       <c r="C205" s="4" t="s">
         <v>477</v>
       </c>
@@ -8750,8 +9094,8 @@
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A206" s="15"/>
-      <c r="B206" s="13"/>
+      <c r="A206" s="13"/>
+      <c r="B206" s="15"/>
       <c r="C206" s="4" t="s">
         <v>479</v>
       </c>
@@ -8760,8 +9104,8 @@
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A207" s="15"/>
-      <c r="B207" s="13" t="s">
+      <c r="A207" s="13"/>
+      <c r="B207" s="15" t="s">
         <v>481</v>
       </c>
       <c r="C207" s="4" t="s">
@@ -8772,8 +9116,8 @@
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A208" s="15"/>
-      <c r="B208" s="13"/>
+      <c r="A208" s="13"/>
+      <c r="B208" s="15"/>
       <c r="C208" s="4" t="s">
         <v>484</v>
       </c>
@@ -8782,8 +9126,8 @@
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A209" s="15"/>
-      <c r="B209" s="13"/>
+      <c r="A209" s="13"/>
+      <c r="B209" s="15"/>
       <c r="C209" s="4" t="s">
         <v>486</v>
       </c>
@@ -8792,8 +9136,8 @@
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A210" s="15"/>
-      <c r="B210" s="13"/>
+      <c r="A210" s="13"/>
+      <c r="B210" s="15"/>
       <c r="C210" s="4" t="s">
         <v>488</v>
       </c>
@@ -8802,8 +9146,8 @@
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A211" s="15"/>
-      <c r="B211" s="13"/>
+      <c r="A211" s="13"/>
+      <c r="B211" s="15"/>
       <c r="C211" s="4" t="s">
         <v>490</v>
       </c>
@@ -8812,7 +9156,7 @@
       </c>
     </row>
     <row r="212" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A212" s="15"/>
+      <c r="A212" s="13"/>
       <c r="B212" s="10" t="s">
         <v>492</v>
       </c>
@@ -8824,7 +9168,7 @@
       </c>
     </row>
     <row r="213" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A213" s="15" t="s">
+      <c r="A213" s="13" t="s">
         <v>494</v>
       </c>
       <c r="B213" s="7" t="s">
@@ -8838,7 +9182,7 @@
       </c>
     </row>
     <row r="214" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A214" s="15"/>
+      <c r="A214" s="13"/>
       <c r="B214" s="7" t="s">
         <v>498</v>
       </c>
@@ -8850,7 +9194,7 @@
       </c>
     </row>
     <row r="215" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A215" s="15"/>
+      <c r="A215" s="13"/>
       <c r="B215" s="12" t="s">
         <v>501</v>
       </c>
@@ -8862,7 +9206,7 @@
       </c>
     </row>
     <row r="216" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A216" s="15"/>
+      <c r="A216" s="13"/>
       <c r="B216" s="12"/>
       <c r="C216" s="4" t="s">
         <v>504</v>
@@ -8872,7 +9216,7 @@
       </c>
     </row>
     <row r="217" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A217" s="15"/>
+      <c r="A217" s="13"/>
       <c r="B217" s="12"/>
       <c r="C217" s="4" t="s">
         <v>506</v>
@@ -8882,7 +9226,7 @@
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A218" s="15"/>
+      <c r="A218" s="13"/>
       <c r="B218" s="12"/>
       <c r="C218" s="4" t="s">
         <v>508</v>
@@ -8892,7 +9236,7 @@
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A219" s="15"/>
+      <c r="A219" s="13"/>
       <c r="B219" s="12"/>
       <c r="C219" s="4" t="s">
         <v>510</v>
@@ -8902,7 +9246,7 @@
       </c>
     </row>
     <row r="220" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A220" s="15"/>
+      <c r="A220" s="13"/>
       <c r="B220" s="7" t="s">
         <v>512</v>
       </c>
@@ -8914,7 +9258,7 @@
       </c>
     </row>
     <row r="221" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A221" s="20" t="s">
+      <c r="A221" s="13" t="s">
         <v>515</v>
       </c>
       <c r="B221" s="12" t="s">
@@ -8928,6 +9272,7 @@
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A222" s="13"/>
       <c r="B222" s="12"/>
       <c r="C222" s="4" t="s">
         <v>519</v>
@@ -8936,18 +9281,190 @@
         <v>520</v>
       </c>
     </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A223" s="13"/>
+      <c r="B223" s="15" t="s">
+        <v>521</v>
+      </c>
+      <c r="C223" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="D223" s="4" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A224" s="13"/>
+      <c r="B224" s="15"/>
+      <c r="C224" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="D224" s="4" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A225" s="13"/>
+      <c r="B225" s="15"/>
+      <c r="C225" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="D225" s="4" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A226" s="13"/>
+      <c r="B226" s="15"/>
+      <c r="C226" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="D226" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A227" s="13"/>
+      <c r="B227" s="15"/>
+      <c r="C227" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="D227" s="4" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A228" s="13"/>
+      <c r="B228" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="C228" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="D228" s="4" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A229" s="13"/>
+      <c r="B229" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="C229" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="D229" s="4" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A230" s="13"/>
+      <c r="B230" s="15" t="s">
+        <v>537</v>
+      </c>
+      <c r="C230" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="D230" s="4" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A231" s="13"/>
+      <c r="B231" s="15"/>
+      <c r="C231" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="D231" s="4" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A232" s="13"/>
+      <c r="B232" s="15"/>
+      <c r="C232" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="D232" s="4" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A233" s="13"/>
+      <c r="B233" s="15"/>
+      <c r="C233" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="D233" s="4" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A234" s="13"/>
+      <c r="B234" s="15"/>
+      <c r="C234" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="D234" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A235" s="13"/>
+      <c r="B235" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="C235" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="D235" s="4" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A236" s="13"/>
+      <c r="B236" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="C236" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="D236" s="4" t="s">
+        <v>533</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="58">
-    <mergeCell ref="B215:B219"/>
-    <mergeCell ref="A213:A220"/>
-    <mergeCell ref="B221:B222"/>
-    <mergeCell ref="B180:B183"/>
-    <mergeCell ref="B184:B185"/>
-    <mergeCell ref="A172:A185"/>
-    <mergeCell ref="B187:B191"/>
-    <mergeCell ref="B174:B176"/>
-    <mergeCell ref="B177:B178"/>
-    <mergeCell ref="A186:A212"/>
+  <mergeCells count="61">
+    <mergeCell ref="B223:B227"/>
+    <mergeCell ref="B230:B234"/>
+    <mergeCell ref="A221:A236"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A3:A36"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B27:B34"/>
+    <mergeCell ref="A37:A55"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="B48:B55"/>
+    <mergeCell ref="B58:B64"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="A56:A87"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="B77:B82"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="B66:B74"/>
+    <mergeCell ref="A88:A111"/>
+    <mergeCell ref="B112:B115"/>
+    <mergeCell ref="B89:B93"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="B97:B101"/>
+    <mergeCell ref="B102:B107"/>
+    <mergeCell ref="B108:B111"/>
     <mergeCell ref="B116:B119"/>
     <mergeCell ref="B120:B126"/>
     <mergeCell ref="B128:B132"/>
@@ -8964,33 +9481,16 @@
     <mergeCell ref="B161:B164"/>
     <mergeCell ref="B165:B168"/>
     <mergeCell ref="B169:B170"/>
-    <mergeCell ref="A88:A111"/>
-    <mergeCell ref="B112:B115"/>
-    <mergeCell ref="B89:B93"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="B97:B101"/>
-    <mergeCell ref="B102:B107"/>
-    <mergeCell ref="B108:B111"/>
-    <mergeCell ref="B58:B64"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="A56:A87"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="B77:B82"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="B66:B74"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A3:A36"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B27:B34"/>
-    <mergeCell ref="A37:A55"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="B48:B55"/>
+    <mergeCell ref="B215:B219"/>
+    <mergeCell ref="A213:A220"/>
+    <mergeCell ref="B221:B222"/>
+    <mergeCell ref="B180:B183"/>
+    <mergeCell ref="B184:B185"/>
+    <mergeCell ref="A172:A185"/>
+    <mergeCell ref="B187:B191"/>
+    <mergeCell ref="B174:B176"/>
+    <mergeCell ref="B177:B178"/>
+    <mergeCell ref="A186:A212"/>
     <mergeCell ref="B192:B195"/>
     <mergeCell ref="B196:B198"/>
     <mergeCell ref="B199:B203"/>
@@ -8998,7 +9498,11 @@
     <mergeCell ref="B207:B211"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="53" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;F</oddHeader>
+    <oddFooter>&amp;P / &amp;N ページ</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>